--- a/data/Inga_2018-11-09_WM_20181109-114911/Ratios.xlsx
+++ b/data/Inga_2018-11-09_WM_20181109-114911/Ratios.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ratios" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>dU234</t>
   </si>
@@ -74,67 +74,14 @@
   </si>
   <si>
     <t>Error (%) 230/232</t>
-  </si>
-  <si>
-    <t>007I9186.exp</t>
-  </si>
-  <si>
-    <t>010I9715.exp</t>
-  </si>
-  <si>
-    <t>013I9186.exp</t>
-  </si>
-  <si>
-    <t>016I9716.exp</t>
-  </si>
-  <si>
-    <t>019I9186.exp</t>
-  </si>
-  <si>
-    <t>022I9717.exp</t>
-  </si>
-  <si>
-    <t>025I9186.exp</t>
-  </si>
-  <si>
-    <t>028I9718.exp</t>
-  </si>
-  <si>
-    <t>031I9186.exp</t>
-  </si>
-  <si>
-    <t>034I9719.exp</t>
-  </si>
-  <si>
-    <t>037I9186.exp</t>
-  </si>
-  <si>
-    <t>040I9720.exp</t>
-  </si>
-  <si>
-    <t>043I9186.exp</t>
-  </si>
-  <si>
-    <t>046I9721.exp</t>
-  </si>
-  <si>
-    <t>049I9186.exp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -150,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -158,30 +105,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,1047 +405,1024 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="13" max="13" width="23.7109375" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="22.7109375" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
+    <col min="19" max="19" width="21.7109375" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
+    <row r="2" spans="1:20">
+      <c r="A2">
+        <v>-7.804999003934165</v>
       </c>
       <c r="B2">
-        <v>-1.535785738414397</v>
+        <v>0.001297845199272916</v>
       </c>
       <c r="C2">
-        <v>0.001297592116384946</v>
+        <v>0.009951859611691306</v>
       </c>
       <c r="D2">
-        <v>0.009969280117327521</v>
+        <v>0.4529884094737747</v>
       </c>
       <c r="E2">
-        <v>0.4520898421929036</v>
+        <v>0.007177412424506762</v>
       </c>
       <c r="F2">
-        <v>0.007177768136834272</v>
+        <v>0.006104175910033261</v>
       </c>
       <c r="G2">
-        <v>0.006103873466328116</v>
+        <v>2.700224297599702</v>
       </c>
       <c r="H2">
-        <v>2.69984585972793</v>
+        <v>0.01121088527781893</v>
       </c>
       <c r="I2">
-        <v>0.01120906247751112</v>
+        <v>2.037632720021286</v>
       </c>
       <c r="J2">
-        <v>2.046636197755046</v>
+        <v>0.4413256278232537</v>
       </c>
       <c r="K2">
-        <v>0.4404323244646988</v>
+        <v>0.007508704185464749</v>
       </c>
       <c r="L2">
-        <v>0.007556148153474185</v>
+        <v>0.1308054563840775</v>
       </c>
       <c r="M2">
-        <v>0.1299588005109008</v>
+        <v>5.445785993331023E-05</v>
       </c>
       <c r="N2">
-        <v>5.48019535213277E-05</v>
+        <v>0.1308054563840785</v>
       </c>
       <c r="O2">
-        <v>0.1299588005109007</v>
+        <v>1.307058359891512</v>
       </c>
       <c r="P2">
-        <v>1.307099537421564</v>
+        <v>0.3719355339971294</v>
       </c>
       <c r="Q2">
-        <v>0.3719291263266972</v>
+        <v>0.1953152227795565</v>
       </c>
       <c r="R2">
-        <v>0.1951421303808006</v>
+        <v>0.39915294139005</v>
       </c>
       <c r="S2">
-        <v>0.3990259786879766</v>
+        <v>0.2549978940478307</v>
       </c>
       <c r="T2">
-        <v>0.2547799290699635</v>
-      </c>
-      <c r="U2">
-        <v>0.3649466894622249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>0.3652508943869588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3">
+        <v>-5.522025838137656</v>
       </c>
       <c r="B3">
-        <v>0.7500215978895053</v>
+        <v>0.001464929058804513</v>
       </c>
       <c r="C3">
-        <v>0.001464721062903878</v>
+        <v>0.005871449486285871</v>
       </c>
       <c r="D3">
-        <v>0.006094486463237138</v>
+        <v>16.5834749531821</v>
       </c>
       <c r="E3">
-        <v>15.94316389804815</v>
+        <v>0.007174892369007835</v>
       </c>
       <c r="F3">
-        <v>0.007175248086664387</v>
+        <v>0.006046942180421825</v>
       </c>
       <c r="G3">
-        <v>0.006046642463070012</v>
+        <v>32.469680700561</v>
       </c>
       <c r="H3">
-        <v>32.40326371742279</v>
+        <v>0.1318375179901774</v>
       </c>
       <c r="I3">
-        <v>0.1315642780674438</v>
+        <v>36.33439527573781</v>
       </c>
       <c r="J3">
-        <v>67.09481988047879</v>
+        <v>197.3848074152816</v>
       </c>
       <c r="K3">
-        <v>69.18855739201307</v>
+        <v>0.007525981202732633</v>
       </c>
       <c r="L3">
-        <v>0.00757344661909439</v>
+        <v>0.1473063352699337</v>
       </c>
       <c r="M3">
-        <v>0.146362331380735</v>
+        <v>5.458316376246643E-05</v>
       </c>
       <c r="N3">
-        <v>5.492741290746652E-05</v>
+        <v>0.1473063352699333</v>
       </c>
       <c r="O3">
-        <v>0.1463623313807348</v>
+        <v>15.3131881725705</v>
       </c>
       <c r="P3">
-        <v>15.30933219515846</v>
+        <v>0.7618491005783058</v>
       </c>
       <c r="Q3">
-        <v>0.7616084039434942</v>
+        <v>0.05928976830441398</v>
       </c>
       <c r="R3">
-        <v>0.05901112647024482</v>
+        <v>2.94309680646436</v>
       </c>
       <c r="S3">
-        <v>2.929932492543371</v>
+        <v>0.9077949813620168</v>
       </c>
       <c r="T3">
-        <v>0.9033010487875309</v>
-      </c>
-      <c r="U3">
-        <v>2.842723571483857</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>2.856040455543694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4">
+        <v>-9.31288992364243</v>
       </c>
       <c r="B4">
-        <v>-3.042656711581104</v>
+        <v>0.001114282490012133</v>
       </c>
       <c r="C4">
-        <v>0.001114055567528818</v>
+        <v>0.009864325718070067</v>
       </c>
       <c r="D4">
-        <v>0.0098817676214793</v>
+        <v>0.424273636844261</v>
       </c>
       <c r="E4">
-        <v>0.4234414502635361</v>
+        <v>0.007176588836367465</v>
       </c>
       <c r="F4">
-        <v>0.007176944546217577</v>
+        <v>0.006501899186842225</v>
       </c>
       <c r="G4">
-        <v>0.006501576965482248</v>
+        <v>2.699961414265223</v>
       </c>
       <c r="H4">
-        <v>2.699583035312471</v>
+        <v>0.008425126656704623</v>
       </c>
       <c r="I4">
-        <v>0.008423663969765736</v>
+        <v>2.054521767548525</v>
       </c>
       <c r="J4">
-        <v>2.0635718201411</v>
+        <v>0.4568369708576102</v>
       </c>
       <c r="K4">
-        <v>0.4556666714120036</v>
+        <v>0.007497292812852841</v>
       </c>
       <c r="L4">
-        <v>0.007544744499583755</v>
+        <v>0.1124757230288628</v>
       </c>
       <c r="M4">
-        <v>0.1117455601314045</v>
+        <v>5.437509745978663E-05</v>
       </c>
       <c r="N4">
-        <v>5.471924702884194E-05</v>
+        <v>0.1124757230288632</v>
       </c>
       <c r="O4">
-        <v>0.111745560131405</v>
+        <v>1.308163344634667</v>
       </c>
       <c r="P4">
-        <v>1.308204699111776</v>
+        <v>0.2311594694459828</v>
       </c>
       <c r="Q4">
-        <v>0.2311552953756151</v>
+        <v>0.1946850010320516</v>
       </c>
       <c r="R4">
-        <v>0.1945116429061541</v>
+        <v>0.4453114339100523</v>
       </c>
       <c r="S4">
-        <v>0.4452648950579985</v>
+        <v>0.2546177938159848</v>
       </c>
       <c r="T4">
-        <v>0.2543991181516105</v>
-      </c>
-      <c r="U4">
-        <v>0.2770297951967517</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>0.2771981304694595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5">
+        <v>-4.27405419511151</v>
       </c>
       <c r="B5">
-        <v>1.999427764147743</v>
+        <v>0.001654508840695953</v>
       </c>
       <c r="C5">
-        <v>0.001654444665158535</v>
+        <v>0.009770685058639169</v>
       </c>
       <c r="D5">
-        <v>0.009820115417633854</v>
+        <v>2.246449382109188</v>
       </c>
       <c r="E5">
-        <v>2.234001093019618</v>
+        <v>0.007173729512424662</v>
       </c>
       <c r="F5">
-        <v>0.00717408523159289</v>
+        <v>0.005788849525234739</v>
       </c>
       <c r="G5">
-        <v>0.00578856249717499</v>
+        <v>7.505937311009947</v>
       </c>
       <c r="H5">
-        <v>7.502572401482168</v>
+        <v>0.02587848821781695</v>
       </c>
       <c r="I5">
-        <v>0.02586661088812609</v>
+        <v>5.844663257715236</v>
       </c>
       <c r="J5">
-        <v>5.848636375990949</v>
+        <v>2.291255335181341</v>
       </c>
       <c r="K5">
-        <v>2.278032896353791</v>
+        <v>0.007535425565876903</v>
       </c>
       <c r="L5">
-        <v>0.007582901838381435</v>
+        <v>0.1661610654685257</v>
       </c>
       <c r="M5">
-        <v>0.165114332335523</v>
+        <v>5.465166024236045E-05</v>
       </c>
       <c r="N5">
-        <v>5.499598812295702E-05</v>
+        <v>0.1661610654685253</v>
       </c>
       <c r="O5">
-        <v>0.1651143323355232</v>
+        <v>3.602074657171582</v>
       </c>
       <c r="P5">
-        <v>3.602021872905649</v>
+        <v>0.4405095298691572</v>
       </c>
       <c r="Q5">
-        <v>0.4404684278906724</v>
+        <v>0.005845969096004373</v>
       </c>
       <c r="R5">
-        <v>0.005845374461645975</v>
+        <v>0.4365468437608944</v>
       </c>
       <c r="S5">
-        <v>0.4365037162627248</v>
+        <v>0.021078060959672</v>
       </c>
       <c r="T5">
-        <v>0.02107560741542367</v>
-      </c>
-      <c r="U5">
-        <v>0.2154446931175135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>0.2154616694939364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6">
+        <v>-7.099003788439306</v>
       </c>
       <c r="B6">
-        <v>-0.8296264984736235</v>
+        <v>0.0009840800039253041</v>
       </c>
       <c r="C6">
-        <v>0.0009839394015774066</v>
+        <v>0.009881026137560896</v>
       </c>
       <c r="D6">
-        <v>0.009898463170733666</v>
+        <v>0.3957829965303979</v>
       </c>
       <c r="E6">
-        <v>0.3950012908949203</v>
+        <v>0.007177178916027677</v>
       </c>
       <c r="F6">
-        <v>0.007177534625300202</v>
+        <v>0.005465312394405053</v>
       </c>
       <c r="G6">
-        <v>0.005465041601531201</v>
+        <v>2.699861724517397</v>
       </c>
       <c r="H6">
-        <v>2.699483392961258</v>
+        <v>0.009401501945072348</v>
       </c>
       <c r="I6">
-        <v>0.009400005428079162</v>
+        <v>2.052941455162469</v>
       </c>
       <c r="J6">
-        <v>2.061978795939123</v>
+        <v>0.4077638331816129</v>
       </c>
       <c r="K6">
-        <v>0.406824831641942</v>
+        <v>0.007514046995319852</v>
       </c>
       <c r="L6">
-        <v>0.00756149220462867</v>
+        <v>0.09911159397362657</v>
       </c>
       <c r="M6">
-        <v>0.09847563815660898</v>
+        <v>5.449660936111465E-05</v>
       </c>
       <c r="N6">
-        <v>5.484071195181838E-05</v>
+        <v>0.09911159397362744</v>
       </c>
       <c r="O6">
-        <v>0.09847563815660948</v>
+        <v>1.307085253381718</v>
       </c>
       <c r="P6">
-        <v>1.307126697943714</v>
+        <v>0.3267873365515174</v>
       </c>
       <c r="Q6">
-        <v>0.3267822419809668</v>
+        <v>0.1949035960663313</v>
       </c>
       <c r="R6">
-        <v>0.1947287178726052</v>
+        <v>0.4559393097717844</v>
       </c>
       <c r="S6">
-        <v>0.4558715161242138</v>
+        <v>0.2548059881162801</v>
       </c>
       <c r="T6">
-        <v>0.2545854329993658</v>
-      </c>
-      <c r="U6">
-        <v>0.2903208624350778</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>0.2904503762574951</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7">
+        <v>-7.372656141343747</v>
       </c>
       <c r="B7">
-        <v>-1.099546883124636</v>
+        <v>0.0007405304900848528</v>
       </c>
       <c r="C7">
-        <v>0.0007405051472630446</v>
+        <v>0.009447438606632603</v>
       </c>
       <c r="D7">
-        <v>0.009609960273039559</v>
+        <v>3.677196895275546</v>
       </c>
       <c r="E7">
-        <v>3.609048839758808</v>
+        <v>0.007174101437475437</v>
       </c>
       <c r="F7">
-        <v>0.007174457157354743</v>
+        <v>0.003929132108512259</v>
       </c>
       <c r="G7">
-        <v>0.00392893733930243</v>
+        <v>24.45592817494576</v>
       </c>
       <c r="H7">
-        <v>24.41842748353419</v>
+        <v>0.03326396770120416</v>
       </c>
       <c r="I7">
-        <v>0.03321230717941123</v>
+        <v>19.74149470824856</v>
       </c>
       <c r="J7">
-        <v>19.48673627441504</v>
+        <v>3.600599511991343</v>
       </c>
       <c r="K7">
-        <v>3.53187696124833</v>
+        <v>0.007511976057081347</v>
       </c>
       <c r="L7">
-        <v>0.007559449509069897</v>
+        <v>0.07460307180398423</v>
       </c>
       <c r="M7">
-        <v>0.07413202636483412</v>
+        <v>5.448158961047095E-05</v>
       </c>
       <c r="N7">
-        <v>5.482589703490616E-05</v>
+        <v>0.07460307180398403</v>
       </c>
       <c r="O7">
-        <v>0.07413202636483363</v>
+        <v>11.53333286410632</v>
       </c>
       <c r="P7">
-        <v>11.53131285793913</v>
+        <v>0.3788770278570907</v>
       </c>
       <c r="Q7">
-        <v>0.3787924278821364</v>
+        <v>0.09889713369926929</v>
       </c>
       <c r="R7">
-        <v>0.09829738195301137</v>
+        <v>1.501120680993739</v>
       </c>
       <c r="S7">
-        <v>1.492674383932083</v>
+        <v>1.141450339728532</v>
       </c>
       <c r="T7">
-        <v>1.134330019521224</v>
-      </c>
-      <c r="U7">
-        <v>1.40067714097342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>1.409391729982011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8">
+        <v>-8.225810040909941</v>
       </c>
       <c r="B8">
-        <v>-1.954717786694871</v>
+        <v>0.0008359026917854169</v>
       </c>
       <c r="C8">
-        <v>0.0008357515363213824</v>
+        <v>0.00992025886030668</v>
       </c>
       <c r="D8">
-        <v>0.009937690253973987</v>
+        <v>0.379676307508504</v>
       </c>
       <c r="E8">
-        <v>0.3789291850644814</v>
+        <v>0.007175670406960734</v>
       </c>
       <c r="F8">
-        <v>0.007176026117582307</v>
+        <v>0.004670199081843708</v>
       </c>
       <c r="G8">
-        <v>0.00466996760022504</v>
+        <v>2.699687868254476</v>
       </c>
       <c r="H8">
-        <v>2.699309545259597</v>
+        <v>0.006829945820170216</v>
       </c>
       <c r="I8">
-        <v>0.00682883386831321</v>
+        <v>2.042144137721671</v>
       </c>
       <c r="J8">
-        <v>2.051160749312588</v>
+        <v>0.4338853320141466</v>
       </c>
       <c r="K8">
-        <v>0.4328449026523639</v>
+        <v>0.00750551958405932</v>
       </c>
       <c r="L8">
-        <v>0.007552977771824213</v>
+        <v>0.08428356981339666</v>
       </c>
       <c r="M8">
-        <v>0.08373883943101065</v>
+        <v>5.443476319477898E-05</v>
       </c>
       <c r="N8">
-        <v>5.477895991343415E-05</v>
+        <v>0.08428356981339646</v>
       </c>
       <c r="O8">
-        <v>0.08373883943101122</v>
+        <v>1.305620634129581</v>
       </c>
       <c r="P8">
-        <v>1.305662393149226</v>
+        <v>0.3126214439593394</v>
       </c>
       <c r="Q8">
-        <v>0.3126162791904639</v>
+        <v>0.1955611270450582</v>
       </c>
       <c r="R8">
-        <v>0.1953827299701781</v>
+        <v>0.4640391450147492</v>
       </c>
       <c r="S8">
-        <v>0.4638404913757248</v>
+        <v>0.2553807405269082</v>
       </c>
       <c r="T8">
-        <v>0.2551557351932992</v>
-      </c>
-      <c r="U8">
-        <v>0.2556604654389273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>0.2559085980240884</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9">
+        <v>-5.923090941454934</v>
       </c>
       <c r="B9">
-        <v>0.3489203877851121</v>
+        <v>0.0006244716518579666</v>
       </c>
       <c r="C9">
-        <v>0.0006243579015636579</v>
+        <v>0.009216830479584458</v>
       </c>
       <c r="D9">
-        <v>0.009440096350573773</v>
+        <v>3.041633203390181</v>
       </c>
       <c r="E9">
-        <v>2.963141473734973</v>
+        <v>0.007174942877452847</v>
       </c>
       <c r="F9">
-        <v>0.007175298596582939</v>
+        <v>0.003295275749194054</v>
       </c>
       <c r="G9">
-        <v>0.003295112378592302</v>
+        <v>33.52785565677289</v>
       </c>
       <c r="H9">
-        <v>33.45701007655609</v>
+        <v>0.03403821483918242</v>
       </c>
       <c r="I9">
-        <v>0.0339668320266534</v>
+        <v>27.32111363835258</v>
       </c>
       <c r="J9">
-        <v>26.7749323068</v>
+        <v>3.26198412250632</v>
       </c>
       <c r="K9">
-        <v>3.178157733517896</v>
+        <v>0.007522946034023965</v>
       </c>
       <c r="L9">
-        <v>0.007570411177137836</v>
+        <v>0.06281924931234764</v>
       </c>
       <c r="M9">
-        <v>0.06241401263487427</v>
+        <v>5.456115080412794E-05</v>
       </c>
       <c r="N9">
-        <v>5.490539796736197E-05</v>
+        <v>0.06281924931234763</v>
       </c>
       <c r="O9">
-        <v>0.062414012634874</v>
+        <v>15.76410741371713</v>
       </c>
       <c r="P9">
-        <v>15.7601226857966</v>
+        <v>0.4306069683049298</v>
       </c>
       <c r="Q9">
-        <v>0.4304744712955171</v>
+        <v>0.0111884929237676</v>
       </c>
       <c r="R9">
-        <v>0.01118110551768327</v>
+        <v>0.5581065631768906</v>
       </c>
       <c r="S9">
-        <v>0.5578203104023658</v>
+        <v>0.1763972920296148</v>
       </c>
       <c r="T9">
-        <v>0.1762362596327645</v>
-      </c>
-      <c r="U9">
-        <v>0.3524673191975353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>0.352747461836582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10">
+        <v>-9.11903921594881</v>
       </c>
       <c r="B10">
-        <v>-2.847555986291272</v>
+        <v>0.001049323121960085</v>
       </c>
       <c r="C10">
-        <v>0.001049182169557438</v>
+        <v>0.009866175375558074</v>
       </c>
       <c r="D10">
-        <v>0.009883620440080225</v>
+        <v>0.4880231218539567</v>
       </c>
       <c r="E10">
-        <v>0.4870596468792335</v>
+        <v>0.007175423486270623</v>
       </c>
       <c r="F10">
-        <v>0.007175779198353556</v>
+        <v>0.005376512318924755</v>
       </c>
       <c r="G10">
-        <v>0.005376245762691754</v>
+        <v>2.699842348464322</v>
       </c>
       <c r="H10">
-        <v>2.699463977054997</v>
+        <v>0.007367609101302973</v>
       </c>
       <c r="I10">
-        <v>0.007366368758302179</v>
+        <v>2.050993350772584</v>
       </c>
       <c r="J10">
-        <v>2.060044850781017</v>
+        <v>0.4824631427079702</v>
       </c>
       <c r="K10">
-        <v>0.4814502484650409</v>
+        <v>0.007498759830544679</v>
       </c>
       <c r="L10">
-        <v>0.007546220977122042</v>
+        <v>0.1058980002128413</v>
       </c>
       <c r="M10">
-        <v>0.1052178306191872</v>
+        <v>5.438573719761735E-05</v>
       </c>
       <c r="N10">
-        <v>5.472995537544725E-05</v>
+        <v>0.10589800021284</v>
       </c>
       <c r="O10">
-        <v>0.1052178306191881</v>
+        <v>1.305071884824147</v>
       </c>
       <c r="P10">
-        <v>1.305113624554582</v>
+        <v>0.2873276902376278</v>
       </c>
       <c r="Q10">
-        <v>0.2873236598103063</v>
+        <v>0.1954096783722622</v>
       </c>
       <c r="R10">
-        <v>0.1952314029601841</v>
+        <v>0.4600160083110928</v>
       </c>
       <c r="S10">
-        <v>0.4598742121188855</v>
+        <v>0.2554818548946036</v>
       </c>
       <c r="T10">
-        <v>0.2552566239881773</v>
-      </c>
-      <c r="U10">
-        <v>0.2917540574804503</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>0.2919218727525814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11">
+        <v>-6.433443140599682</v>
       </c>
       <c r="B11">
-        <v>-0.1595900040435305</v>
+        <v>0.0006161072660691845</v>
       </c>
       <c r="C11">
-        <v>0.0006159983574768764</v>
+        <v>0.009275762100361804</v>
       </c>
       <c r="D11">
-        <v>0.009487403354555272</v>
+        <v>2.599828633578414</v>
       </c>
       <c r="E11">
-        <v>2.53644352667617</v>
+        <v>0.007173208009125739</v>
       </c>
       <c r="F11">
-        <v>0.007173563718519486</v>
+        <v>0.003069158185486068</v>
       </c>
       <c r="G11">
-        <v>0.003069006008533759</v>
+        <v>31.78450933286796</v>
       </c>
       <c r="H11">
-        <v>31.72087915327379</v>
+        <v>0.02679740494515749</v>
       </c>
       <c r="I11">
-        <v>0.02674313040086092</v>
+        <v>25.81319005779038</v>
       </c>
       <c r="J11">
-        <v>25.3375528244668</v>
+        <v>2.60421673341181</v>
       </c>
       <c r="K11">
-        <v>2.537669234336503</v>
+        <v>0.007519083805641508</v>
       </c>
       <c r="L11">
-        <v>0.007566562887130689</v>
+        <v>0.06200966224312707</v>
       </c>
       <c r="M11">
-        <v>0.06160966803485823</v>
+        <v>5.453313948724993E-05</v>
       </c>
       <c r="N11">
-        <v>5.487748774037531E-05</v>
+        <v>0.06200966224312741</v>
       </c>
       <c r="O11">
-        <v>0.06160966803485844</v>
+        <v>15.0250210772788</v>
       </c>
       <c r="P11">
-        <v>15.0228543467471</v>
+        <v>0.2608414030922713</v>
       </c>
       <c r="Q11">
-        <v>0.2607807078363422</v>
+        <v>0.0004872536322901804</v>
       </c>
       <c r="R11">
-        <v>0.0004873108255863941</v>
+        <v>0.270309734740635</v>
       </c>
       <c r="S11">
-        <v>0.2702500168961465</v>
+        <v>0.007329360492418006</v>
       </c>
       <c r="T11">
-        <v>0.007329162023043708</v>
-      </c>
-      <c r="U11">
-        <v>0.06276175247515996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>0.06276366939631138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12">
+        <v>-8.80119325594797</v>
       </c>
       <c r="B12">
-        <v>-2.529167524201847</v>
+        <v>0.0008902872485023303</v>
       </c>
       <c r="C12">
-        <v>0.0008901499197111417</v>
+        <v>0.009925520157418415</v>
       </c>
       <c r="D12">
-        <v>0.009942955813991438</v>
+        <v>0.4790823333858197</v>
       </c>
       <c r="E12">
-        <v>0.4781354106721791</v>
+        <v>0.0071750008640418</v>
       </c>
       <c r="F12">
-        <v>0.007175356576917184</v>
+        <v>0.004396165432796493</v>
       </c>
       <c r="G12">
-        <v>0.004395947462145746</v>
+        <v>2.699976063037522</v>
       </c>
       <c r="H12">
-        <v>2.699597622255987</v>
+        <v>0.006933823641965237</v>
       </c>
       <c r="I12">
-        <v>0.006932752004564243</v>
+        <v>2.040685591347108</v>
       </c>
       <c r="J12">
-        <v>2.049710078689774</v>
+        <v>0.4865783652161744</v>
       </c>
       <c r="K12">
-        <v>0.4855358211679444</v>
+        <v>0.007501165215864897</v>
       </c>
       <c r="L12">
-        <v>0.007548630467973634</v>
+        <v>0.0898192413514696</v>
       </c>
       <c r="M12">
-        <v>0.08924069664290218</v>
+        <v>5.44031825694976E-05</v>
       </c>
       <c r="N12">
-        <v>5.474743052323115E-05</v>
+        <v>0.08981924135146994</v>
       </c>
       <c r="O12">
-        <v>0.08924069664290053</v>
+        <v>1.306630629134643</v>
       </c>
       <c r="P12">
-        <v>1.3066724939202</v>
+        <v>0.2159781585259122</v>
       </c>
       <c r="Q12">
-        <v>0.2159736089007706</v>
+        <v>0.1948733684597248</v>
       </c>
       <c r="R12">
-        <v>0.1946950519444107</v>
+        <v>0.3252440389050255</v>
       </c>
       <c r="S12">
-        <v>0.3251071635678012</v>
+        <v>0.2546353811297317</v>
       </c>
       <c r="T12">
-        <v>0.2544105331741326</v>
-      </c>
-      <c r="U12">
-        <v>0.2209169781038759</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>0.2210939408575293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13">
+        <v>-6.706838481807753</v>
       </c>
       <c r="B13">
-        <v>-0.4334538426590262</v>
+        <v>0.000680784593363384</v>
       </c>
       <c r="C13">
-        <v>0.0006807402287646478</v>
+        <v>0.008624082076558362</v>
       </c>
       <c r="D13">
-        <v>0.008755799692347315</v>
+        <v>3.0109766047939</v>
       </c>
       <c r="E13">
-        <v>2.96185397948124</v>
+        <v>0.007173694395509467</v>
       </c>
       <c r="F13">
-        <v>0.007174050105841434</v>
+        <v>0.003691643306656199</v>
       </c>
       <c r="G13">
-        <v>0.003691460229459285</v>
+        <v>19.66819430568869</v>
       </c>
       <c r="H13">
-        <v>19.64405846258551</v>
+        <v>0.02488681619018561</v>
       </c>
       <c r="I13">
-        <v>0.02485576683611989</v>
+        <v>17.27813842375546</v>
       </c>
       <c r="J13">
-        <v>17.09807045289071</v>
+        <v>3.019526129293407</v>
       </c>
       <c r="K13">
-        <v>2.969044156191978</v>
+        <v>0.007517014812408571</v>
       </c>
       <c r="L13">
-        <v>0.007564490348416833</v>
+        <v>0.06853813352775351</v>
       </c>
       <c r="M13">
-        <v>0.06810354261871222</v>
+        <v>5.451813384301368E-05</v>
       </c>
       <c r="N13">
-        <v>5.486245638207463E-05</v>
+        <v>0.06853813352775361</v>
       </c>
       <c r="O13">
-        <v>0.06810354261871156</v>
+        <v>9.332347919483126</v>
       </c>
       <c r="P13">
-        <v>9.330838981762803</v>
+        <v>0.3563294179398365</v>
       </c>
       <c r="Q13">
-        <v>0.3562335204826603</v>
+        <v>0.02229272590771353</v>
       </c>
       <c r="R13">
-        <v>0.02226580494729695</v>
+        <v>0.6370051026986803</v>
       </c>
       <c r="S13">
-        <v>0.6365202419269219</v>
+        <v>0.2077105255766752</v>
       </c>
       <c r="T13">
-        <v>0.2074262417872774</v>
-      </c>
-      <c r="U13">
-        <v>0.5094612156275244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>0.5100128732940742</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14">
+        <v>-8.59274828467016</v>
       </c>
       <c r="B14">
-        <v>-2.320906566088965</v>
+        <v>0.0007914111759094643</v>
       </c>
       <c r="C14">
-        <v>0.0007914499647809167</v>
+        <v>0.009840100752249373</v>
       </c>
       <c r="D14">
-        <v>0.009857552171206933</v>
+        <v>0.4606813959577388</v>
       </c>
       <c r="E14">
-        <v>0.4597603348935775</v>
+        <v>0.007175168614655631</v>
       </c>
       <c r="F14">
-        <v>0.007175524326662111</v>
+        <v>0.004990027020787426</v>
       </c>
       <c r="G14">
-        <v>0.004989779700928007</v>
+        <v>2.699639164531578</v>
       </c>
       <c r="H14">
-        <v>2.69926084063386</v>
+        <v>0.008385582466026015</v>
       </c>
       <c r="I14">
-        <v>0.008384063810247094</v>
+        <v>2.056289926711851</v>
       </c>
       <c r="J14">
-        <v>2.065346642606248</v>
+        <v>0.4510044129976984</v>
       </c>
       <c r="K14">
-        <v>0.4501397466717666</v>
+        <v>0.007502742679596023</v>
       </c>
       <c r="L14">
-        <v>0.007550206539135336</v>
+        <v>0.07982705134950015</v>
       </c>
       <c r="M14">
-        <v>0.07932911193486328</v>
+        <v>5.441462333168473E-05</v>
       </c>
       <c r="N14">
-        <v>5.475886118562624E-05</v>
+        <v>0.07982705134950012</v>
       </c>
       <c r="O14">
-        <v>0.07932911193486331</v>
+        <v>1.304440511402357</v>
       </c>
       <c r="P14">
-        <v>1.304482294510548</v>
+        <v>0.2363464539365236</v>
       </c>
       <c r="Q14">
-        <v>0.2363411464051823</v>
+        <v>0.1939055478227817</v>
       </c>
       <c r="R14">
-        <v>0.1937295673288651</v>
+        <v>0.4233373744636245</v>
       </c>
       <c r="S14">
-        <v>0.4231008055075224</v>
+        <v>0.253069302108616</v>
       </c>
       <c r="T14">
-        <v>0.2528477252011239</v>
-      </c>
-      <c r="U14">
-        <v>0.3816689386724827</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>0.3819248791011966</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15">
+        <v>-6.443034567431338</v>
       </c>
       <c r="B15">
-        <v>-0.1682124945038277</v>
+        <v>0.0005200580618573414</v>
       </c>
       <c r="C15">
-        <v>0.0005199805778160234</v>
+        <v>0.009381074044038158</v>
       </c>
       <c r="D15">
-        <v>0.009555237304478012</v>
+        <v>2.383544334505293</v>
       </c>
       <c r="E15">
-        <v>2.335984021334833</v>
+        <v>0.007172321943957398</v>
       </c>
       <c r="F15">
-        <v>0.00717267765308464</v>
+        <v>0.002934456044112562</v>
       </c>
       <c r="G15">
-        <v>0.002934310487219762</v>
+        <v>26.18053986132839</v>
       </c>
       <c r="H15">
-        <v>26.13750213057232</v>
+        <v>0.02071471651063465</v>
       </c>
       <c r="I15">
-        <v>0.0206799264554004</v>
+        <v>21.08490759029927</v>
       </c>
       <c r="J15">
-        <v>20.7905278955502</v>
+        <v>2.481059050738221</v>
       </c>
       <c r="K15">
-        <v>2.430907481352213</v>
+        <v>0.007519011219923254</v>
       </c>
       <c r="L15">
-        <v>0.007566497634100648</v>
+        <v>0.05234305429391403</v>
       </c>
       <c r="M15">
-        <v>0.05200680597616672</v>
+        <v>5.453261304982741E-05</v>
       </c>
       <c r="N15">
-        <v>5.487701448423384E-05</v>
+        <v>0.05234305429391477</v>
       </c>
       <c r="O15">
-        <v>0.05200680597616677</v>
+        <v>12.45041190986168</v>
       </c>
       <c r="P15">
-        <v>12.44906434466002</v>
+        <v>0.2349649607111613</v>
       </c>
       <c r="Q15">
-        <v>0.2349292894137989</v>
+        <v>0.0008440523549057676</v>
       </c>
       <c r="R15">
-        <v>0.0008441119735818969</v>
+        <v>0.2206577408978276</v>
       </c>
       <c r="S15">
-        <v>0.2206198538240843</v>
+        <v>0.01050772243759998</v>
       </c>
       <c r="T15">
-        <v>0.01050732759955239</v>
-      </c>
-      <c r="U15">
-        <v>0.05845621411757618</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>0.05845787692190892</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16">
+        <v>-9.311278865016813</v>
       </c>
       <c r="B16">
-        <v>-3.039303458338694</v>
+        <v>0.001018515308941513</v>
       </c>
       <c r="C16">
-        <v>0.001018388305285391</v>
+        <v>0.009915917819362338</v>
       </c>
       <c r="D16">
-        <v>0.009933353286865032</v>
+        <v>0.3940729336980472</v>
       </c>
       <c r="E16">
-        <v>0.3932927679723144</v>
+        <v>0.007174982877848418</v>
       </c>
       <c r="F16">
-        <v>0.007175338588542672</v>
+        <v>0.003976534468702555</v>
       </c>
       <c r="G16">
-        <v>0.003976337401878786</v>
+        <v>2.699625384014881</v>
       </c>
       <c r="H16">
-        <v>2.699247062586395</v>
+        <v>0.006325548081463028</v>
       </c>
       <c r="I16">
-        <v>0.006324550632621455</v>
+        <v>2.043952717511341</v>
       </c>
       <c r="J16">
-        <v>2.052985398839601</v>
+        <v>0.3982560278135304</v>
       </c>
       <c r="K16">
-        <v>0.3974768072012285</v>
+        <v>0.007497305004974988</v>
       </c>
       <c r="L16">
-        <v>0.007544769876235149</v>
+        <v>0.1028088124163414</v>
       </c>
       <c r="M16">
-        <v>0.1021492932287154</v>
+        <v>5.437518588474835E-05</v>
       </c>
       <c r="N16">
-        <v>5.471943107632778E-05</v>
+        <v>0.1028088124163411</v>
       </c>
       <c r="O16">
-        <v>0.102149293228716</v>
+        <v>1.305290323744349</v>
       </c>
       <c r="P16">
-        <v>1.305332127505846</v>
+        <v>0.3392822083284456</v>
       </c>
       <c r="Q16">
-        <v>0.3392770574246313</v>
+        <v>0.1952979297977842</v>
       </c>
       <c r="R16">
-        <v>0.1951196802213739</v>
+        <v>0.447838902538647</v>
       </c>
       <c r="S16">
-        <v>0.4478104010203486</v>
+        <v>0.2545482117061623</v>
       </c>
       <c r="T16">
-        <v>0.2543240245112843</v>
-      </c>
-      <c r="U16">
-        <v>0.2858331097738412</v>
+        <v>0.2860260958180118</v>
       </c>
     </row>
   </sheetData>

--- a/data/Inga_2018-11-09_WM_20181109-114911/Ratios.xlsx
+++ b/data/Inga_2018-11-09_WM_20181109-114911/Ratios.xlsx
@@ -411,20 +411,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
     <col min="13" max="13" width="23.7109375" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
     <col min="15" max="15" width="19.7109375" customWidth="1"/>
     <col min="16" max="16" width="20.7109375" customWidth="1"/>
     <col min="17" max="17" width="22.7109375" customWidth="1"/>
@@ -497,932 +497,932 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2">
-        <v>-7.804999003934165</v>
+        <v>-2.046579556390093</v>
       </c>
       <c r="B2">
-        <v>0.001297845199272916</v>
+        <v>0.001297592116384946</v>
       </c>
       <c r="C2">
-        <v>0.009951859611691306</v>
+        <v>0.01000133335800107</v>
       </c>
       <c r="D2">
-        <v>0.4529884094737747</v>
+        <v>0.4506409409315248</v>
       </c>
       <c r="E2">
-        <v>0.007177412424506762</v>
+        <v>0.00717799145314555</v>
       </c>
       <c r="F2">
-        <v>0.006104175910033261</v>
+        <v>0.006103683567173748</v>
       </c>
       <c r="G2">
-        <v>2.700224297599702</v>
+        <v>2.699694738769988</v>
       </c>
       <c r="H2">
-        <v>0.01121088527781893</v>
+        <v>0.01120968992780575</v>
       </c>
       <c r="I2">
-        <v>2.037632720021286</v>
+        <v>2.045544290722234</v>
       </c>
       <c r="J2">
-        <v>0.4413256278232537</v>
+        <v>0.4406674262685277</v>
       </c>
       <c r="K2">
-        <v>0.007508704185464749</v>
+        <v>0.007552282583021711</v>
       </c>
       <c r="L2">
-        <v>0.1308054563840775</v>
+        <v>0.1300253187977594</v>
       </c>
       <c r="M2">
-        <v>5.445785993331023E-05</v>
+        <v>5.477391796564943E-05</v>
       </c>
       <c r="N2">
-        <v>0.1308054563840785</v>
+        <v>0.1300253187977592</v>
       </c>
       <c r="O2">
-        <v>1.307058359891512</v>
+        <v>1.305966114169593</v>
       </c>
       <c r="P2">
-        <v>0.3719355339971294</v>
+        <v>0.3722519165700965</v>
       </c>
       <c r="Q2">
-        <v>0.1953152227795565</v>
+        <v>0.1946590676346031</v>
       </c>
       <c r="R2">
-        <v>0.39915294139005</v>
+        <v>0.4000161950052096</v>
       </c>
       <c r="S2">
-        <v>0.2549978940478307</v>
+        <v>0.2546811624431466</v>
       </c>
       <c r="T2">
-        <v>0.3652508943869588</v>
+        <v>0.3650882176111481</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3">
-        <v>-5.522025838137656</v>
+        <v>1.001880926451593</v>
       </c>
       <c r="B3">
-        <v>0.001464929058804513</v>
+        <v>0.001464721062903879</v>
       </c>
       <c r="C3">
-        <v>0.005871449486285871</v>
+        <v>0.006314133240824234</v>
       </c>
       <c r="D3">
-        <v>16.5834749531821</v>
+        <v>15.38855656855631</v>
       </c>
       <c r="E3">
-        <v>0.007174892369007835</v>
+        <v>0.007175141914796956</v>
       </c>
       <c r="F3">
-        <v>0.006046942180421825</v>
+        <v>0.00604673193632777</v>
       </c>
       <c r="G3">
-        <v>32.469680700561</v>
+        <v>32.39369657979356</v>
       </c>
       <c r="H3">
-        <v>0.1318375179901774</v>
+        <v>0.1316031341934269</v>
       </c>
       <c r="I3">
-        <v>36.33439527573781</v>
+        <v>34.97014251891885</v>
       </c>
       <c r="J3">
-        <v>197.3848074152816</v>
+        <v>132.7473513582583</v>
       </c>
       <c r="K3">
-        <v>0.007525981202732633</v>
+        <v>0.00757535263272339</v>
       </c>
       <c r="L3">
-        <v>0.1473063352699337</v>
+        <v>0.1463255055573167</v>
       </c>
       <c r="M3">
-        <v>5.458316376246643E-05</v>
+        <v>5.494123652079249E-05</v>
       </c>
       <c r="N3">
-        <v>0.1473063352699333</v>
+        <v>0.1463255055573166</v>
       </c>
       <c r="O3">
-        <v>15.3131881725705</v>
+        <v>15.28067913104173</v>
       </c>
       <c r="P3">
-        <v>0.7618491005783058</v>
+        <v>0.7630365089539382</v>
       </c>
       <c r="Q3">
-        <v>0.05928976830441398</v>
+        <v>0.0589822979282273</v>
       </c>
       <c r="R3">
-        <v>2.94309680646436</v>
+        <v>2.931364543937377</v>
       </c>
       <c r="S3">
-        <v>0.9077949813620168</v>
+        <v>0.9018582759042776</v>
       </c>
       <c r="T3">
-        <v>2.856040455543694</v>
+        <v>2.847271297654479</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4">
-        <v>-9.31288992364243</v>
+        <v>-3.583007132901161</v>
       </c>
       <c r="B4">
-        <v>0.001114282490012133</v>
+        <v>0.001114055567528818</v>
       </c>
       <c r="C4">
-        <v>0.009864325718070067</v>
+        <v>0.009859724104468644</v>
       </c>
       <c r="D4">
-        <v>0.424273636844261</v>
+        <v>0.4243881439755509</v>
       </c>
       <c r="E4">
-        <v>0.007176588836367465</v>
+        <v>0.007177055373651661</v>
       </c>
       <c r="F4">
-        <v>0.006501899186842225</v>
+        <v>0.006501476568724097</v>
       </c>
       <c r="G4">
-        <v>2.699961414265223</v>
+        <v>2.699718702860548</v>
       </c>
       <c r="H4">
-        <v>0.008425126656704623</v>
+        <v>0.008423240659798149</v>
       </c>
       <c r="I4">
-        <v>2.054521767548525</v>
+        <v>2.064165395369796</v>
       </c>
       <c r="J4">
-        <v>0.4568369708576102</v>
+        <v>0.4555356390590248</v>
       </c>
       <c r="K4">
-        <v>0.007497292812852841</v>
+        <v>0.007540655251536639</v>
       </c>
       <c r="L4">
-        <v>0.1124757230288628</v>
+        <v>0.1118061590181456</v>
       </c>
       <c r="M4">
-        <v>5.437509745978663E-05</v>
+        <v>5.468958922213095E-05</v>
       </c>
       <c r="N4">
-        <v>0.1124757230288632</v>
+        <v>0.1118061590181461</v>
       </c>
       <c r="O4">
-        <v>1.308163344634667</v>
+        <v>1.309592230342671</v>
       </c>
       <c r="P4">
-        <v>0.2311594694459828</v>
+        <v>0.230910383116601</v>
       </c>
       <c r="Q4">
-        <v>0.1946850010320516</v>
+        <v>0.1951022458973197</v>
       </c>
       <c r="R4">
-        <v>0.4453114339100523</v>
+        <v>0.4439170131939391</v>
       </c>
       <c r="S4">
-        <v>0.2546177938159848</v>
+        <v>0.2544523546619117</v>
       </c>
       <c r="T4">
-        <v>0.2771981304694595</v>
+        <v>0.2769718350353481</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5">
-        <v>-4.27405419511151</v>
+        <v>1.440140168575077</v>
       </c>
       <c r="B5">
-        <v>0.001654508840695953</v>
+        <v>0.001654444665158535</v>
       </c>
       <c r="C5">
-        <v>0.009770685058639169</v>
+        <v>0.009882492370345322</v>
       </c>
       <c r="D5">
-        <v>2.246449382109188</v>
+        <v>2.21990038083948</v>
       </c>
       <c r="E5">
-        <v>0.007173729512424662</v>
+        <v>0.007173997915120665</v>
       </c>
       <c r="F5">
-        <v>0.005788849525234739</v>
+        <v>0.005788632951176021</v>
       </c>
       <c r="G5">
-        <v>7.505937311009947</v>
+        <v>7.502573418054824</v>
       </c>
       <c r="H5">
-        <v>0.02587848821781695</v>
+        <v>0.0258666073832901</v>
       </c>
       <c r="I5">
-        <v>5.844663257715236</v>
+        <v>5.73688258602763</v>
       </c>
       <c r="J5">
-        <v>2.291255335181341</v>
+        <v>2.322408706039819</v>
       </c>
       <c r="K5">
-        <v>0.007535425565876903</v>
+        <v>0.007578669278143239</v>
       </c>
       <c r="L5">
-        <v>0.1661610654685257</v>
+        <v>0.1652065459329437</v>
       </c>
       <c r="M5">
-        <v>5.465166024236045E-05</v>
+        <v>5.496529092582182E-05</v>
       </c>
       <c r="N5">
-        <v>0.1661610654685253</v>
+        <v>0.1652065459329439</v>
       </c>
       <c r="O5">
-        <v>3.602074657171582</v>
+        <v>3.607035859658489</v>
       </c>
       <c r="P5">
-        <v>0.4405095298691572</v>
+        <v>0.4398561515096172</v>
       </c>
       <c r="Q5">
-        <v>0.005845969096004373</v>
+        <v>0.005860629943994579</v>
       </c>
       <c r="R5">
-        <v>0.4365468437608944</v>
+        <v>0.4353674775303392</v>
       </c>
       <c r="S5">
-        <v>0.021078060959672</v>
+        <v>0.02107339427257118</v>
       </c>
       <c r="T5">
-        <v>0.2154616694939364</v>
+        <v>0.2154673192723945</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6">
-        <v>-7.099003788439306</v>
+        <v>-0.760486846759223</v>
       </c>
       <c r="B6">
-        <v>0.0009840800039253041</v>
+        <v>0.0009839394015774066</v>
       </c>
       <c r="C6">
-        <v>0.009881026137560896</v>
+        <v>0.00990981077345649</v>
       </c>
       <c r="D6">
-        <v>0.3957829965303979</v>
+        <v>0.3945489797634017</v>
       </c>
       <c r="E6">
-        <v>0.007177178916027677</v>
+        <v>0.007177484057560762</v>
       </c>
       <c r="F6">
-        <v>0.005465312394405053</v>
+        <v>0.005465080104549463</v>
       </c>
       <c r="G6">
-        <v>2.699861724517397</v>
+        <v>2.699478350561817</v>
       </c>
       <c r="H6">
-        <v>0.009401501945072348</v>
+        <v>0.009400022986501923</v>
       </c>
       <c r="I6">
-        <v>2.052941455162469</v>
+        <v>2.060119946887088</v>
       </c>
       <c r="J6">
-        <v>0.4077638331816129</v>
+        <v>0.4071919102451975</v>
       </c>
       <c r="K6">
-        <v>0.007514046995319852</v>
+        <v>0.007562015437654122</v>
       </c>
       <c r="L6">
-        <v>0.09911159397362657</v>
+        <v>0.09846882440351487</v>
       </c>
       <c r="M6">
-        <v>5.449660936111465E-05</v>
+        <v>5.484450676782241E-05</v>
       </c>
       <c r="N6">
-        <v>0.09911159397362744</v>
+        <v>0.09846882440351537</v>
       </c>
       <c r="O6">
-        <v>1.307085253381718</v>
+        <v>1.306146495871305</v>
       </c>
       <c r="P6">
-        <v>0.3267873365515174</v>
+        <v>0.3270274768239409</v>
       </c>
       <c r="Q6">
-        <v>0.1949035960663313</v>
+        <v>0.1949372469548754</v>
       </c>
       <c r="R6">
-        <v>0.4559393097717844</v>
+        <v>0.4553838593506854</v>
       </c>
       <c r="S6">
-        <v>0.2548059881162801</v>
+        <v>0.2542352498259605</v>
       </c>
       <c r="T6">
-        <v>0.2904503762574951</v>
+        <v>0.2907207498660413</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7">
-        <v>-7.372656141343747</v>
+        <v>-0.798744689258557</v>
       </c>
       <c r="B7">
-        <v>0.0007405304900848528</v>
+        <v>0.0007405051472630446</v>
       </c>
       <c r="C7">
-        <v>0.009447438606632603</v>
+        <v>0.009695338289446138</v>
       </c>
       <c r="D7">
-        <v>3.677196895275546</v>
+        <v>3.577267232778834</v>
       </c>
       <c r="E7">
-        <v>0.007174101437475437</v>
+        <v>0.007174498837758559</v>
       </c>
       <c r="F7">
-        <v>0.003929132108512259</v>
+        <v>0.00392891451405727</v>
       </c>
       <c r="G7">
-        <v>24.45592817494576</v>
+        <v>24.41778435892999</v>
       </c>
       <c r="H7">
-        <v>0.03326396770120416</v>
+        <v>0.0332131819373989</v>
       </c>
       <c r="I7">
-        <v>19.74149470824856</v>
+        <v>18.74110099785223</v>
       </c>
       <c r="J7">
-        <v>3.600599511991343</v>
+        <v>3.672396563329767</v>
       </c>
       <c r="K7">
-        <v>0.007511976057081347</v>
+        <v>0.007561725911077375</v>
       </c>
       <c r="L7">
-        <v>0.07460307180398423</v>
+        <v>0.07410970946316117</v>
       </c>
       <c r="M7">
-        <v>5.448158961047095E-05</v>
+        <v>5.48424069384279E-05</v>
       </c>
       <c r="N7">
-        <v>0.07460307180398403</v>
+        <v>0.07410970946316066</v>
       </c>
       <c r="O7">
-        <v>11.53333286410632</v>
+        <v>11.51100365806201</v>
       </c>
       <c r="P7">
-        <v>0.3788770278570907</v>
+        <v>0.37946074242345</v>
       </c>
       <c r="Q7">
-        <v>0.09889713369926929</v>
+        <v>0.09872799592855958</v>
       </c>
       <c r="R7">
-        <v>1.501120680993739</v>
+        <v>1.486163905879544</v>
       </c>
       <c r="S7">
-        <v>1.141450339728532</v>
+        <v>1.133871896585667</v>
       </c>
       <c r="T7">
-        <v>1.409391729982011</v>
+        <v>1.401243062331488</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8">
-        <v>-8.225810040909941</v>
+        <v>-1.865161027824191</v>
       </c>
       <c r="B8">
-        <v>0.0008359026917854169</v>
+        <v>0.0008357515363213823</v>
       </c>
       <c r="C8">
-        <v>0.00992025886030668</v>
+        <v>0.009942642374867586</v>
       </c>
       <c r="D8">
-        <v>0.379676307508504</v>
+        <v>0.3787404522242763</v>
       </c>
       <c r="E8">
-        <v>0.007175670406960734</v>
+        <v>0.007175964846226958</v>
       </c>
       <c r="F8">
-        <v>0.004670199081843708</v>
+        <v>0.004670007474339591</v>
       </c>
       <c r="G8">
-        <v>2.699687868254476</v>
+        <v>2.699349606342518</v>
       </c>
       <c r="H8">
-        <v>0.006829945820170216</v>
+        <v>0.006828732521500181</v>
       </c>
       <c r="I8">
-        <v>2.042144137721671</v>
+        <v>2.053786140768191</v>
       </c>
       <c r="J8">
-        <v>0.4338853320141466</v>
+        <v>0.4322915892929702</v>
       </c>
       <c r="K8">
-        <v>0.00750551958405932</v>
+        <v>0.007553655516833508</v>
       </c>
       <c r="L8">
-        <v>0.08428356981339666</v>
+        <v>0.08373132603827226</v>
       </c>
       <c r="M8">
-        <v>5.443476319477898E-05</v>
+        <v>5.478387534782535E-05</v>
       </c>
       <c r="N8">
-        <v>0.08428356981339646</v>
+        <v>0.08373132603827285</v>
       </c>
       <c r="O8">
-        <v>1.305620634129581</v>
+        <v>1.309110682592674</v>
       </c>
       <c r="P8">
-        <v>0.3126214439593394</v>
+        <v>0.3117928259639976</v>
       </c>
       <c r="Q8">
-        <v>0.1955611270450582</v>
+        <v>0.1953125163448551</v>
       </c>
       <c r="R8">
-        <v>0.4640391450147492</v>
+        <v>0.4640072391248222</v>
       </c>
       <c r="S8">
-        <v>0.2553807405269082</v>
+        <v>0.2555664552922462</v>
       </c>
       <c r="T8">
-        <v>0.2559085980240884</v>
+        <v>0.25524959425655</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9">
-        <v>-5.923090941454934</v>
+        <v>0.2198797105625871</v>
       </c>
       <c r="B9">
-        <v>0.0006244716518579666</v>
+        <v>0.0006243579015636577</v>
       </c>
       <c r="C9">
-        <v>0.009216830479584458</v>
+        <v>0.009501002438922376</v>
       </c>
       <c r="D9">
-        <v>3.041633203390181</v>
+        <v>2.944146282696039</v>
       </c>
       <c r="E9">
-        <v>0.007174942877452847</v>
+        <v>0.0071752783125933</v>
       </c>
       <c r="F9">
-        <v>0.003295275749194054</v>
+        <v>0.003295121693635208</v>
       </c>
       <c r="G9">
-        <v>33.52785565677289</v>
+        <v>33.45852367426423</v>
       </c>
       <c r="H9">
-        <v>0.03403821483918242</v>
+        <v>0.03396529543407661</v>
       </c>
       <c r="I9">
-        <v>27.32111363835258</v>
+        <v>26.46578628848677</v>
       </c>
       <c r="J9">
-        <v>3.26198412250632</v>
+        <v>3.215281694173313</v>
       </c>
       <c r="K9">
-        <v>0.007522946034023965</v>
+        <v>0.007569434626890977</v>
       </c>
       <c r="L9">
-        <v>0.06281924931234764</v>
+        <v>0.06242206481082272</v>
       </c>
       <c r="M9">
-        <v>5.456115080412794E-05</v>
+        <v>5.489831540887415E-05</v>
       </c>
       <c r="N9">
-        <v>0.06281924931234763</v>
+        <v>0.06242206481082245</v>
       </c>
       <c r="O9">
-        <v>15.76410741371713</v>
+        <v>15.76782841539394</v>
       </c>
       <c r="P9">
-        <v>0.4306069683049298</v>
+        <v>0.4302640986438764</v>
       </c>
       <c r="Q9">
-        <v>0.0111884929237676</v>
+        <v>0.01117163554071872</v>
       </c>
       <c r="R9">
-        <v>0.5581065631768906</v>
+        <v>0.5582931637702198</v>
       </c>
       <c r="S9">
-        <v>0.1763972920296148</v>
+        <v>0.1766722212465853</v>
       </c>
       <c r="T9">
-        <v>0.352747461836582</v>
+        <v>0.3515975603853564</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10">
-        <v>-9.11903921594881</v>
+        <v>-2.527172136228328</v>
       </c>
       <c r="B10">
-        <v>0.001049323121960085</v>
+        <v>0.001049182169557438</v>
       </c>
       <c r="C10">
-        <v>0.009866175375558074</v>
+        <v>0.009900252643082731</v>
       </c>
       <c r="D10">
-        <v>0.4880231218539567</v>
+        <v>0.4862413975664865</v>
       </c>
       <c r="E10">
-        <v>0.007175423486270623</v>
+        <v>0.007175743706411997</v>
       </c>
       <c r="F10">
-        <v>0.005376512318924755</v>
+        <v>0.005376272354137635</v>
       </c>
       <c r="G10">
-        <v>2.699842348464322</v>
+        <v>2.699247965118998</v>
       </c>
       <c r="H10">
-        <v>0.007367609101302973</v>
+        <v>0.007366958264563671</v>
       </c>
       <c r="I10">
-        <v>2.050993350772584</v>
+        <v>2.057099993786945</v>
       </c>
       <c r="J10">
-        <v>0.4824631427079702</v>
+        <v>0.4821394721954245</v>
       </c>
       <c r="K10">
-        <v>0.007498759830544679</v>
+        <v>0.007548645568612128</v>
       </c>
       <c r="L10">
-        <v>0.1058980002128413</v>
+        <v>0.1051840351184704</v>
       </c>
       <c r="M10">
-        <v>5.438573719761735E-05</v>
+        <v>5.474754004258839E-05</v>
       </c>
       <c r="N10">
-        <v>0.10589800021284</v>
+        <v>0.1051840351184713</v>
       </c>
       <c r="O10">
-        <v>1.305071884824147</v>
+        <v>1.305377877935024</v>
       </c>
       <c r="P10">
-        <v>0.2873276902376278</v>
+        <v>0.287265495619179</v>
       </c>
       <c r="Q10">
-        <v>0.1954096783722622</v>
+        <v>0.1955331892553568</v>
       </c>
       <c r="R10">
-        <v>0.4600160083110928</v>
+        <v>0.4591644413876385</v>
       </c>
       <c r="S10">
-        <v>0.2554818548946036</v>
+        <v>0.2551270533060435</v>
       </c>
       <c r="T10">
-        <v>0.2919218727525814</v>
+        <v>0.2919022298194994</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11">
-        <v>-6.433443140599682</v>
+        <v>0.1000772476560385</v>
       </c>
       <c r="B11">
-        <v>0.0006161072660691845</v>
+        <v>0.0006159983574768764</v>
       </c>
       <c r="C11">
-        <v>0.009275762100361804</v>
+        <v>0.009610709267804031</v>
       </c>
       <c r="D11">
-        <v>2.599828633578414</v>
+        <v>2.503900820748269</v>
       </c>
       <c r="E11">
-        <v>0.007173208009125739</v>
+        <v>0.007173593772190717</v>
       </c>
       <c r="F11">
-        <v>0.003069158185486068</v>
+        <v>0.003068993150975816</v>
       </c>
       <c r="G11">
-        <v>31.78450933286796</v>
+        <v>31.71906999615733</v>
       </c>
       <c r="H11">
-        <v>0.02679740494515749</v>
+        <v>0.02674465574585643</v>
       </c>
       <c r="I11">
-        <v>25.81319005779038</v>
+        <v>24.88698370481256</v>
       </c>
       <c r="J11">
-        <v>2.60421673341181</v>
+        <v>2.583612744665059</v>
       </c>
       <c r="K11">
-        <v>0.007519083805641508</v>
+        <v>0.00756852798933107</v>
       </c>
       <c r="L11">
-        <v>0.06200966224312707</v>
+        <v>0.06159367162255841</v>
       </c>
       <c r="M11">
-        <v>5.453313948724993E-05</v>
+        <v>5.489173990129945E-05</v>
       </c>
       <c r="N11">
-        <v>0.06200966224312741</v>
+        <v>0.06159367162255863</v>
       </c>
       <c r="O11">
-        <v>15.0250210772788</v>
+        <v>15.02000864866997</v>
       </c>
       <c r="P11">
-        <v>0.2608414030922713</v>
+        <v>0.2608301154749262</v>
       </c>
       <c r="Q11">
-        <v>0.0004872536322901804</v>
+        <v>0.0004873868849594435</v>
       </c>
       <c r="R11">
-        <v>0.270309734740635</v>
+        <v>0.2702078429118109</v>
       </c>
       <c r="S11">
-        <v>0.007329360492418006</v>
+        <v>0.007330486930141442</v>
       </c>
       <c r="T11">
-        <v>0.06276366939631138</v>
+        <v>0.06275040895976827</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12">
-        <v>-8.80119325594797</v>
+        <v>-2.505910882709017</v>
       </c>
       <c r="B12">
-        <v>0.0008902872485023303</v>
+        <v>0.0008901499197111418</v>
       </c>
       <c r="C12">
-        <v>0.009925520157418415</v>
+        <v>0.009915310322743721</v>
       </c>
       <c r="D12">
-        <v>0.4790823333858197</v>
+        <v>0.4794685296448291</v>
       </c>
       <c r="E12">
-        <v>0.0071750008640418</v>
+        <v>0.007175344537425666</v>
       </c>
       <c r="F12">
-        <v>0.004396165432796493</v>
+        <v>0.004395954838094303</v>
       </c>
       <c r="G12">
-        <v>2.699976063037522</v>
+        <v>2.699528980303033</v>
       </c>
       <c r="H12">
-        <v>0.006933823641965237</v>
+        <v>0.00693292828629354</v>
       </c>
       <c r="I12">
-        <v>2.040685591347108</v>
+        <v>2.048005683746828</v>
       </c>
       <c r="J12">
-        <v>0.4865783652161744</v>
+        <v>0.4859398946550374</v>
       </c>
       <c r="K12">
-        <v>0.007501165215864897</v>
+        <v>0.007548806468902021</v>
       </c>
       <c r="L12">
-        <v>0.0898192413514696</v>
+        <v>0.08923861599008324</v>
       </c>
       <c r="M12">
-        <v>5.44031825694976E-05</v>
+        <v>5.474870699300137E-05</v>
       </c>
       <c r="N12">
-        <v>0.08981924135146994</v>
+        <v>0.08923861599008161</v>
       </c>
       <c r="O12">
-        <v>1.306630629134643</v>
+        <v>1.307630094685265</v>
       </c>
       <c r="P12">
-        <v>0.2159781585259122</v>
+        <v>0.2158154475874466</v>
       </c>
       <c r="Q12">
-        <v>0.1948733684597248</v>
+        <v>0.1945463722328488</v>
       </c>
       <c r="R12">
-        <v>0.3252440389050255</v>
+        <v>0.3253556227847539</v>
       </c>
       <c r="S12">
-        <v>0.2546353811297317</v>
+        <v>0.2542119999036979</v>
       </c>
       <c r="T12">
-        <v>0.2210939408575293</v>
+        <v>0.2210895087876128</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13">
-        <v>-6.706838481807753</v>
+        <v>-0.6457035711256998</v>
       </c>
       <c r="B13">
-        <v>0.000680784593363384</v>
+        <v>0.0006807402287646481</v>
       </c>
       <c r="C13">
-        <v>0.008624082076558362</v>
+        <v>0.008660796286496011</v>
       </c>
       <c r="D13">
-        <v>3.0109766047939</v>
+        <v>2.994343626665726</v>
       </c>
       <c r="E13">
-        <v>0.007173694395509467</v>
+        <v>0.007174118780785095</v>
       </c>
       <c r="F13">
-        <v>0.003691643306656199</v>
+        <v>0.003691424892600358</v>
       </c>
       <c r="G13">
-        <v>19.66819430568869</v>
+        <v>19.64649218141604</v>
       </c>
       <c r="H13">
-        <v>0.02488681619018561</v>
+        <v>0.024852687815843</v>
       </c>
       <c r="I13">
-        <v>17.27813842375546</v>
+        <v>17.11992933803555</v>
       </c>
       <c r="J13">
-        <v>3.019526129293407</v>
+        <v>2.965253252975106</v>
       </c>
       <c r="K13">
-        <v>0.007517014812408571</v>
+        <v>0.00756288409115601</v>
       </c>
       <c r="L13">
-        <v>0.06853813352775351</v>
+        <v>0.06811800691678958</v>
       </c>
       <c r="M13">
-        <v>5.451813384301368E-05</v>
+        <v>5.485080679104452E-05</v>
       </c>
       <c r="N13">
-        <v>0.06853813352775361</v>
+        <v>0.06811800691678893</v>
       </c>
       <c r="O13">
-        <v>9.332347919483126</v>
+        <v>9.315907172679495</v>
       </c>
       <c r="P13">
-        <v>0.3563294179398365</v>
+        <v>0.3568045020111711</v>
       </c>
       <c r="Q13">
-        <v>0.02229272590771353</v>
+        <v>0.02233836201713205</v>
       </c>
       <c r="R13">
-        <v>0.6370051026986803</v>
+        <v>0.6344527651974496</v>
       </c>
       <c r="S13">
-        <v>0.2077105255766752</v>
+        <v>0.2082698513425592</v>
       </c>
       <c r="T13">
-        <v>0.5100128732940742</v>
+        <v>0.5073976123417954</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14">
-        <v>-8.59274828467016</v>
+        <v>-2.202891300742693</v>
       </c>
       <c r="B14">
-        <v>0.0007914111759094643</v>
+        <v>0.0007914499647809169</v>
       </c>
       <c r="C14">
-        <v>0.009840100752249373</v>
+        <v>0.0098836395373202</v>
       </c>
       <c r="D14">
-        <v>0.4606813959577388</v>
+        <v>0.4585468207690044</v>
       </c>
       <c r="E14">
-        <v>0.007175168614655631</v>
+        <v>0.007175724036267457</v>
       </c>
       <c r="F14">
-        <v>0.004990027020787426</v>
+        <v>0.004989640828957764</v>
       </c>
       <c r="G14">
-        <v>2.699639164531578</v>
+        <v>2.699293296102625</v>
       </c>
       <c r="H14">
-        <v>0.008385582466026015</v>
+        <v>0.008383963002853724</v>
       </c>
       <c r="I14">
-        <v>2.056289926711851</v>
+        <v>2.065583347955624</v>
       </c>
       <c r="J14">
-        <v>0.4510044129976984</v>
+        <v>0.4500881629454989</v>
       </c>
       <c r="K14">
-        <v>0.007502742679596023</v>
+        <v>0.007551099651594036</v>
       </c>
       <c r="L14">
-        <v>0.07982705134950015</v>
+        <v>0.07931972921956675</v>
       </c>
       <c r="M14">
-        <v>5.441462333168473E-05</v>
+        <v>5.476533860063415E-05</v>
       </c>
       <c r="N14">
-        <v>0.07982705134950012</v>
+        <v>0.07931972921956673</v>
       </c>
       <c r="O14">
-        <v>1.304440511402357</v>
+        <v>1.304508843912329</v>
       </c>
       <c r="P14">
-        <v>0.2363464539365236</v>
+        <v>0.2363363363833242</v>
       </c>
       <c r="Q14">
-        <v>0.1939055478227817</v>
+        <v>0.1939276295426846</v>
       </c>
       <c r="R14">
-        <v>0.4233373744636245</v>
+        <v>0.4226686840898305</v>
       </c>
       <c r="S14">
-        <v>0.253069302108616</v>
+        <v>0.2532553014898574</v>
       </c>
       <c r="T14">
-        <v>0.3819248791011966</v>
+        <v>0.3810546999630308</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15">
-        <v>-6.443034567431338</v>
+        <v>-0.1425688480258813</v>
       </c>
       <c r="B15">
-        <v>0.0005200580618573414</v>
+        <v>0.0005199805778160235</v>
       </c>
       <c r="C15">
-        <v>0.009381074044038158</v>
+        <v>0.009562542639302308</v>
       </c>
       <c r="D15">
-        <v>2.383544334505293</v>
+        <v>2.334199438921583</v>
       </c>
       <c r="E15">
-        <v>0.007172321943957398</v>
+        <v>0.007172705358310005</v>
       </c>
       <c r="F15">
-        <v>0.002934456044112562</v>
+        <v>0.002934299153179218</v>
       </c>
       <c r="G15">
-        <v>26.18053986132839</v>
+        <v>26.13831359394676</v>
       </c>
       <c r="H15">
-        <v>0.02071471651063465</v>
+        <v>0.02067928444753542</v>
       </c>
       <c r="I15">
-        <v>21.08490759029927</v>
+        <v>20.56717153534174</v>
       </c>
       <c r="J15">
-        <v>2.481059050738221</v>
+        <v>2.457306767520724</v>
       </c>
       <c r="K15">
-        <v>0.007519011219923254</v>
+        <v>0.007566691699335247</v>
       </c>
       <c r="L15">
-        <v>0.05234305429391403</v>
+        <v>0.05200547214185662</v>
       </c>
       <c r="M15">
-        <v>5.453261304982741E-05</v>
+        <v>5.487842196774934E-05</v>
       </c>
       <c r="N15">
-        <v>0.05234305429391477</v>
+        <v>0.05200547214185666</v>
       </c>
       <c r="O15">
-        <v>12.45041190986168</v>
+        <v>12.44650878844356</v>
       </c>
       <c r="P15">
-        <v>0.2349649607111613</v>
+        <v>0.2349775258322351</v>
       </c>
       <c r="Q15">
-        <v>0.0008440523549057676</v>
+        <v>0.0008440191775448218</v>
       </c>
       <c r="R15">
-        <v>0.2206577408978276</v>
+        <v>0.2206441099650343</v>
       </c>
       <c r="S15">
-        <v>0.01050772243759998</v>
+        <v>0.01050848119283961</v>
       </c>
       <c r="T15">
-        <v>0.05845787692190892</v>
+        <v>0.05844979694891361</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16">
-        <v>-9.311278865016813</v>
+        <v>-3.463886524832205</v>
       </c>
       <c r="B16">
-        <v>0.001018515308941513</v>
+        <v>0.001018388305285391</v>
       </c>
       <c r="C16">
-        <v>0.009915917819362338</v>
+        <v>0.009903412313649067</v>
       </c>
       <c r="D16">
-        <v>0.3940729336980472</v>
+        <v>0.394481809472249</v>
       </c>
       <c r="E16">
-        <v>0.007174982877848418</v>
+        <v>0.007175176480282673</v>
       </c>
       <c r="F16">
-        <v>0.003976534468702555</v>
+        <v>0.003976427238991387</v>
       </c>
       <c r="G16">
-        <v>2.699625384014881</v>
+        <v>2.699291895192637</v>
       </c>
       <c r="H16">
-        <v>0.006325548081463028</v>
+        <v>0.006324445588002652</v>
       </c>
       <c r="I16">
-        <v>2.043952717511341</v>
+        <v>2.051668836958891</v>
       </c>
       <c r="J16">
-        <v>0.3982560278135304</v>
+        <v>0.3977318692284916</v>
       </c>
       <c r="K16">
-        <v>0.007497305004974988</v>
+        <v>0.007541556728975534</v>
       </c>
       <c r="L16">
-        <v>0.1028088124163414</v>
+        <v>0.1021928148428072</v>
       </c>
       <c r="M16">
-        <v>5.437518588474835E-05</v>
+        <v>5.46961273052526E-05</v>
       </c>
       <c r="N16">
-        <v>0.1028088124163411</v>
+        <v>0.1021928148428077</v>
       </c>
       <c r="O16">
-        <v>1.305290323744349</v>
+        <v>1.306532670285804</v>
       </c>
       <c r="P16">
-        <v>0.3392822083284456</v>
+        <v>0.3389653035504574</v>
       </c>
       <c r="Q16">
-        <v>0.1952979297977842</v>
+        <v>0.1948974100333302</v>
       </c>
       <c r="R16">
-        <v>0.447838902538647</v>
+        <v>0.448321105098077</v>
       </c>
       <c r="S16">
-        <v>0.2545482117061623</v>
+        <v>0.2543404327212342</v>
       </c>
       <c r="T16">
-        <v>0.2860260958180118</v>
+        <v>0.2858146698835508</v>
       </c>
     </row>
   </sheetData>

--- a/data/Inga_2018-11-09_WM_20181109-114911/Ratios.xlsx
+++ b/data/Inga_2018-11-09_WM_20181109-114911/Ratios.xlsx
@@ -411,7 +411,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
@@ -497,10 +497,10 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2">
-        <v>-2.046579556390093</v>
+        <v>-3.543703889504424</v>
       </c>
       <c r="B2">
-        <v>0.001297592116384946</v>
+        <v>0.001295645475698015</v>
       </c>
       <c r="C2">
         <v>0.01000133335800107</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3">
-        <v>1.001880926451593</v>
+        <v>-0.4998166906194923</v>
       </c>
       <c r="B3">
-        <v>0.001464721062903879</v>
+        <v>0.001462523696273757</v>
       </c>
       <c r="C3">
         <v>0.006314133240824234</v>
@@ -621,10 +621,10 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4">
-        <v>-3.583007132901161</v>
+        <v>-5.0778265256608</v>
       </c>
       <c r="B4">
-        <v>0.001114055567528818</v>
+        <v>0.001112384267381515</v>
       </c>
       <c r="C4">
         <v>0.009859724104468644</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5">
-        <v>1.440140168575077</v>
+        <v>-0.0622149226449098</v>
       </c>
       <c r="B5">
-        <v>0.001654444665158535</v>
+        <v>0.001651962676204683</v>
       </c>
       <c r="C5">
         <v>0.009882492370345322</v>
@@ -745,10 +745,10 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6">
-        <v>-0.760486846759223</v>
+        <v>-2.259540569212626</v>
       </c>
       <c r="B6">
-        <v>0.0009839394015774066</v>
+        <v>0.0009824633009997295</v>
       </c>
       <c r="C6">
         <v>0.00990981077345649</v>
@@ -807,10 +807,10 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7">
-        <v>-0.798744689258557</v>
+        <v>-2.29774101750313</v>
       </c>
       <c r="B7">
-        <v>0.0007405051472630446</v>
+        <v>0.0007393942454393191</v>
       </c>
       <c r="C7">
         <v>0.009695338289446138</v>
@@ -869,10 +869,10 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8">
-        <v>-1.865161027824191</v>
+        <v>-3.36255752403547</v>
       </c>
       <c r="B8">
-        <v>0.0008357515363213823</v>
+        <v>0.0008344977463790538</v>
       </c>
       <c r="C8">
         <v>0.009942642374867586</v>
@@ -931,10 +931,10 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9">
-        <v>0.2198797105625871</v>
+        <v>-1.280644752506777</v>
       </c>
       <c r="B9">
-        <v>0.0006243579015636577</v>
+        <v>0.0006234212432108183</v>
       </c>
       <c r="C9">
         <v>0.009501002438922376</v>
@@ -993,10 +993,10 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10">
-        <v>-2.527172136228328</v>
+        <v>-4.023575486949205</v>
       </c>
       <c r="B10">
-        <v>0.001049182169557438</v>
+        <v>0.001047608192131502</v>
       </c>
       <c r="C10">
         <v>0.009900252643082731</v>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11">
-        <v>0.1000772476560385</v>
+        <v>-1.400267488405271</v>
       </c>
       <c r="B11">
-        <v>0.0006159983574768764</v>
+        <v>0.0006150742400669406</v>
       </c>
       <c r="C11">
         <v>0.009610709267804031</v>
@@ -1117,10 +1117,10 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12">
-        <v>-2.505910882709017</v>
+        <v>-4.00234612944772</v>
       </c>
       <c r="B12">
-        <v>0.0008901499197111418</v>
+        <v>0.0008888145216077643</v>
       </c>
       <c r="C12">
         <v>0.009915310322743721</v>
@@ -1179,10 +1179,10 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13">
-        <v>-0.6457035711256998</v>
+        <v>-2.14492949082945</v>
       </c>
       <c r="B13">
-        <v>0.0006807402287646481</v>
+        <v>0.000679718985948966</v>
       </c>
       <c r="C13">
         <v>0.008660796286496011</v>
@@ -1241,10 +1241,10 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14">
-        <v>-2.202891300742693</v>
+        <v>-3.699781135822144</v>
       </c>
       <c r="B14">
-        <v>0.0007914499647809169</v>
+        <v>0.0007902626358170166</v>
       </c>
       <c r="C14">
         <v>0.0098836395373202</v>
@@ -1303,10 +1303,10 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15">
-        <v>-0.1425688480258813</v>
+        <v>-1.642549567724694</v>
       </c>
       <c r="B15">
-        <v>0.0005199805778160235</v>
+        <v>0.0005192005057607072</v>
       </c>
       <c r="C15">
         <v>0.009562542639302308</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16">
-        <v>-3.463886524832205</v>
+        <v>-4.958884621684923</v>
       </c>
       <c r="B16">
-        <v>0.001018388305285391</v>
+        <v>0.001016860524648371</v>
       </c>
       <c r="C16">
         <v>0.009903412313649067</v>

--- a/data/Inga_2018-11-09_WM_20181109-114911/Ratios.xlsx
+++ b/data/Inga_2018-11-09_WM_20181109-114911/Ratios.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+  <si>
+    <t>Lab. #</t>
+  </si>
   <si>
     <t>dU234</t>
   </si>
@@ -89,12 +92,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E4BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,8 +118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,35 +415,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="23.7109375" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1"/>
-    <col min="17" max="17" width="22.7109375" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
-    <col min="19" max="19" width="21.7109375" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+    <col min="16" max="16" width="19.7109375" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" customWidth="1"/>
+    <col min="20" max="20" width="21.7109375" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,934 +505,982 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2">
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="1" customFormat="1">
+      <c r="A2" s="1">
+        <v>9186</v>
+      </c>
+      <c r="B2" s="1">
         <v>-3.543703889504424</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="1">
         <v>0.001295645475698015</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="1">
         <v>0.01000133335800107</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="1">
         <v>0.4506409409315248</v>
       </c>
-      <c r="E2">
+      <c r="F2" s="1">
         <v>0.00717799145314555</v>
       </c>
-      <c r="F2">
+      <c r="G2" s="1">
         <v>0.006103683567173748</v>
       </c>
-      <c r="G2">
+      <c r="H2" s="1">
         <v>2.699694738769988</v>
       </c>
-      <c r="H2">
+      <c r="I2" s="1">
         <v>0.01120968992780575</v>
       </c>
-      <c r="I2">
+      <c r="J2" s="1">
         <v>2.045544290722234</v>
       </c>
-      <c r="J2">
+      <c r="K2" s="1">
         <v>0.4406674262685277</v>
       </c>
-      <c r="K2">
+      <c r="L2" s="1">
         <v>0.007552282583021711</v>
       </c>
-      <c r="L2">
+      <c r="M2" s="1">
         <v>0.1300253187977594</v>
       </c>
-      <c r="M2">
+      <c r="N2" s="1">
         <v>5.477391796564943E-05</v>
       </c>
-      <c r="N2">
+      <c r="O2" s="1">
         <v>0.1300253187977592</v>
       </c>
-      <c r="O2">
+      <c r="P2" s="1">
         <v>1.305966114169593</v>
       </c>
-      <c r="P2">
+      <c r="Q2" s="1">
         <v>0.3722519165700965</v>
       </c>
-      <c r="Q2">
+      <c r="R2" s="1">
         <v>0.1946590676346031</v>
       </c>
-      <c r="R2">
+      <c r="S2" s="1">
         <v>0.4000161950052096</v>
       </c>
-      <c r="S2">
+      <c r="T2" s="1">
         <v>0.2546811624431466</v>
       </c>
-      <c r="T2">
+      <c r="U2" s="1">
         <v>0.3650882176111481</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3">
+        <v>9715</v>
+      </c>
+      <c r="B3">
         <v>-0.4998166906194923</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0.001462523696273757</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.006314133240824234</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>15.38855656855631</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.007175141914796956</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.00604673193632777</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>32.39369657979356</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.1316031341934269</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>34.97014251891885</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>132.7473513582583</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.00757535263272339</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.1463255055573167</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>5.494123652079249E-05</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.1463255055573166</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>15.28067913104173</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.7630365089539382</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.0589822979282273</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>2.931364543937377</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.9018582759042776</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>2.847271297654479</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4">
+    <row r="4" spans="1:21" s="1" customFormat="1">
+      <c r="A4" s="1">
+        <v>9186</v>
+      </c>
+      <c r="B4" s="1">
         <v>-5.0778265256608</v>
       </c>
-      <c r="B4">
+      <c r="C4" s="1">
         <v>0.001112384267381515</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="1">
         <v>0.009859724104468644</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="1">
         <v>0.4243881439755509</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="1">
         <v>0.007177055373651661</v>
       </c>
-      <c r="F4">
+      <c r="G4" s="1">
         <v>0.006501476568724097</v>
       </c>
-      <c r="G4">
+      <c r="H4" s="1">
         <v>2.699718702860548</v>
       </c>
-      <c r="H4">
+      <c r="I4" s="1">
         <v>0.008423240659798149</v>
       </c>
-      <c r="I4">
+      <c r="J4" s="1">
         <v>2.064165395369796</v>
       </c>
-      <c r="J4">
+      <c r="K4" s="1">
         <v>0.4555356390590248</v>
       </c>
-      <c r="K4">
+      <c r="L4" s="1">
         <v>0.007540655251536639</v>
       </c>
-      <c r="L4">
+      <c r="M4" s="1">
         <v>0.1118061590181456</v>
       </c>
-      <c r="M4">
+      <c r="N4" s="1">
         <v>5.468958922213095E-05</v>
       </c>
-      <c r="N4">
+      <c r="O4" s="1">
         <v>0.1118061590181461</v>
       </c>
-      <c r="O4">
+      <c r="P4" s="1">
         <v>1.309592230342671</v>
       </c>
-      <c r="P4">
+      <c r="Q4" s="1">
         <v>0.230910383116601</v>
       </c>
-      <c r="Q4">
+      <c r="R4" s="1">
         <v>0.1951022458973197</v>
       </c>
-      <c r="R4">
+      <c r="S4" s="1">
         <v>0.4439170131939391</v>
       </c>
-      <c r="S4">
+      <c r="T4" s="1">
         <v>0.2544523546619117</v>
       </c>
-      <c r="T4">
+      <c r="U4" s="1">
         <v>0.2769718350353481</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5">
+        <v>9716</v>
+      </c>
+      <c r="B5">
         <v>-0.0622149226449098</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0.001651962676204683</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.009882492370345322</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2.21990038083948</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.007173997915120665</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.005788632951176021</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>7.502573418054824</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.0258666073832901</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>5.73688258602763</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2.322408706039819</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.007578669278143239</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.1652065459329437</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>5.496529092582182E-05</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0.1652065459329439</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>3.607035859658489</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.4398561515096172</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.005860629943994579</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.4353674775303392</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0.02107339427257118</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>0.2154673192723945</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6">
+    <row r="6" spans="1:21" s="1" customFormat="1">
+      <c r="A6" s="1">
+        <v>9186</v>
+      </c>
+      <c r="B6" s="1">
         <v>-2.259540569212626</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="1">
         <v>0.0009824633009997295</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="1">
         <v>0.00990981077345649</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="1">
         <v>0.3945489797634017</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="1">
         <v>0.007177484057560762</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="1">
         <v>0.005465080104549463</v>
       </c>
-      <c r="G6">
+      <c r="H6" s="1">
         <v>2.699478350561817</v>
       </c>
-      <c r="H6">
+      <c r="I6" s="1">
         <v>0.009400022986501923</v>
       </c>
-      <c r="I6">
+      <c r="J6" s="1">
         <v>2.060119946887088</v>
       </c>
-      <c r="J6">
+      <c r="K6" s="1">
         <v>0.4071919102451975</v>
       </c>
-      <c r="K6">
+      <c r="L6" s="1">
         <v>0.007562015437654122</v>
       </c>
-      <c r="L6">
+      <c r="M6" s="1">
         <v>0.09846882440351487</v>
       </c>
-      <c r="M6">
+      <c r="N6" s="1">
         <v>5.484450676782241E-05</v>
       </c>
-      <c r="N6">
+      <c r="O6" s="1">
         <v>0.09846882440351537</v>
       </c>
-      <c r="O6">
+      <c r="P6" s="1">
         <v>1.306146495871305</v>
       </c>
-      <c r="P6">
+      <c r="Q6" s="1">
         <v>0.3270274768239409</v>
       </c>
-      <c r="Q6">
+      <c r="R6" s="1">
         <v>0.1949372469548754</v>
       </c>
-      <c r="R6">
+      <c r="S6" s="1">
         <v>0.4553838593506854</v>
       </c>
-      <c r="S6">
+      <c r="T6" s="1">
         <v>0.2542352498259605</v>
       </c>
-      <c r="T6">
+      <c r="U6" s="1">
         <v>0.2907207498660413</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7">
+        <v>9717</v>
+      </c>
+      <c r="B7">
         <v>-2.29774101750313</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>0.0007393942454393191</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.009695338289446138</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>3.577267232778834</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.007174498837758559</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.00392891451405727</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>24.41778435892999</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.0332131819373989</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>18.74110099785223</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>3.672396563329767</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.007561725911077375</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.07410970946316117</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>5.48424069384279E-05</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.07410970946316066</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>11.51100365806201</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>0.37946074242345</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>0.09872799592855958</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1.486163905879544</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1.133871896585667</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1.401243062331488</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8">
+    <row r="8" spans="1:21" s="1" customFormat="1">
+      <c r="A8" s="1">
+        <v>9186</v>
+      </c>
+      <c r="B8" s="1">
         <v>-3.36255752403547</v>
       </c>
-      <c r="B8">
+      <c r="C8" s="1">
         <v>0.0008344977463790538</v>
       </c>
-      <c r="C8">
+      <c r="D8" s="1">
         <v>0.009942642374867586</v>
       </c>
-      <c r="D8">
+      <c r="E8" s="1">
         <v>0.3787404522242763</v>
       </c>
-      <c r="E8">
+      <c r="F8" s="1">
         <v>0.007175964846226958</v>
       </c>
-      <c r="F8">
+      <c r="G8" s="1">
         <v>0.004670007474339591</v>
       </c>
-      <c r="G8">
+      <c r="H8" s="1">
         <v>2.699349606342518</v>
       </c>
-      <c r="H8">
+      <c r="I8" s="1">
         <v>0.006828732521500181</v>
       </c>
-      <c r="I8">
+      <c r="J8" s="1">
         <v>2.053786140768191</v>
       </c>
-      <c r="J8">
+      <c r="K8" s="1">
         <v>0.4322915892929702</v>
       </c>
-      <c r="K8">
+      <c r="L8" s="1">
         <v>0.007553655516833508</v>
       </c>
-      <c r="L8">
+      <c r="M8" s="1">
         <v>0.08373132603827226</v>
       </c>
-      <c r="M8">
+      <c r="N8" s="1">
         <v>5.478387534782535E-05</v>
       </c>
-      <c r="N8">
+      <c r="O8" s="1">
         <v>0.08373132603827285</v>
       </c>
-      <c r="O8">
+      <c r="P8" s="1">
         <v>1.309110682592674</v>
       </c>
-      <c r="P8">
+      <c r="Q8" s="1">
         <v>0.3117928259639976</v>
       </c>
-      <c r="Q8">
+      <c r="R8" s="1">
         <v>0.1953125163448551</v>
       </c>
-      <c r="R8">
+      <c r="S8" s="1">
         <v>0.4640072391248222</v>
       </c>
-      <c r="S8">
+      <c r="T8" s="1">
         <v>0.2555664552922462</v>
       </c>
-      <c r="T8">
+      <c r="U8" s="1">
         <v>0.25524959425655</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9">
+        <v>9718</v>
+      </c>
+      <c r="B9">
         <v>-1.280644752506777</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>0.0006234212432108183</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.009501002438922376</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>2.944146282696039</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.0071752783125933</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.003295121693635208</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>33.45852367426423</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.03396529543407661</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>26.46578628848677</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>3.215281694173313</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.007569434626890977</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.06242206481082272</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>5.489831540887415E-05</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>0.06242206481082245</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>15.76782841539394</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.4302640986438764</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>0.01117163554071872</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.5582931637702198</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>0.1766722212465853</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>0.3515975603853564</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10">
+    <row r="10" spans="1:21" s="1" customFormat="1">
+      <c r="A10" s="1">
+        <v>9186</v>
+      </c>
+      <c r="B10" s="1">
         <v>-4.023575486949205</v>
       </c>
-      <c r="B10">
+      <c r="C10" s="1">
         <v>0.001047608192131502</v>
       </c>
-      <c r="C10">
+      <c r="D10" s="1">
         <v>0.009900252643082731</v>
       </c>
-      <c r="D10">
+      <c r="E10" s="1">
         <v>0.4862413975664865</v>
       </c>
-      <c r="E10">
+      <c r="F10" s="1">
         <v>0.007175743706411997</v>
       </c>
-      <c r="F10">
+      <c r="G10" s="1">
         <v>0.005376272354137635</v>
       </c>
-      <c r="G10">
+      <c r="H10" s="1">
         <v>2.699247965118998</v>
       </c>
-      <c r="H10">
+      <c r="I10" s="1">
         <v>0.007366958264563671</v>
       </c>
-      <c r="I10">
+      <c r="J10" s="1">
         <v>2.057099993786945</v>
       </c>
-      <c r="J10">
+      <c r="K10" s="1">
         <v>0.4821394721954245</v>
       </c>
-      <c r="K10">
+      <c r="L10" s="1">
         <v>0.007548645568612128</v>
       </c>
-      <c r="L10">
+      <c r="M10" s="1">
         <v>0.1051840351184704</v>
       </c>
-      <c r="M10">
+      <c r="N10" s="1">
         <v>5.474754004258839E-05</v>
       </c>
-      <c r="N10">
+      <c r="O10" s="1">
         <v>0.1051840351184713</v>
       </c>
-      <c r="O10">
+      <c r="P10" s="1">
         <v>1.305377877935024</v>
       </c>
-      <c r="P10">
+      <c r="Q10" s="1">
         <v>0.287265495619179</v>
       </c>
-      <c r="Q10">
+      <c r="R10" s="1">
         <v>0.1955331892553568</v>
       </c>
-      <c r="R10">
+      <c r="S10" s="1">
         <v>0.4591644413876385</v>
       </c>
-      <c r="S10">
+      <c r="T10" s="1">
         <v>0.2551270533060435</v>
       </c>
-      <c r="T10">
+      <c r="U10" s="1">
         <v>0.2919022298194994</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11">
+        <v>9719</v>
+      </c>
+      <c r="B11">
         <v>-1.400267488405271</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>0.0006150742400669406</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.009610709267804031</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>2.503900820748269</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.007173593772190717</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.003068993150975816</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>31.71906999615733</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.02674465574585643</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>24.88698370481256</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>2.583612744665059</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.00756852798933107</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.06159367162255841</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>5.489173990129945E-05</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>0.06159367162255863</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>15.02000864866997</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>0.2608301154749262</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>0.0004873868849594435</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>0.2702078429118109</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>0.007330486930141442</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>0.06275040895976827</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12">
+    <row r="12" spans="1:21" s="1" customFormat="1">
+      <c r="A12" s="1">
+        <v>9186</v>
+      </c>
+      <c r="B12" s="1">
         <v>-4.00234612944772</v>
       </c>
-      <c r="B12">
+      <c r="C12" s="1">
         <v>0.0008888145216077643</v>
       </c>
-      <c r="C12">
+      <c r="D12" s="1">
         <v>0.009915310322743721</v>
       </c>
-      <c r="D12">
+      <c r="E12" s="1">
         <v>0.4794685296448291</v>
       </c>
-      <c r="E12">
+      <c r="F12" s="1">
         <v>0.007175344537425666</v>
       </c>
-      <c r="F12">
+      <c r="G12" s="1">
         <v>0.004395954838094303</v>
       </c>
-      <c r="G12">
+      <c r="H12" s="1">
         <v>2.699528980303033</v>
       </c>
-      <c r="H12">
+      <c r="I12" s="1">
         <v>0.00693292828629354</v>
       </c>
-      <c r="I12">
+      <c r="J12" s="1">
         <v>2.048005683746828</v>
       </c>
-      <c r="J12">
+      <c r="K12" s="1">
         <v>0.4859398946550374</v>
       </c>
-      <c r="K12">
+      <c r="L12" s="1">
         <v>0.007548806468902021</v>
       </c>
-      <c r="L12">
+      <c r="M12" s="1">
         <v>0.08923861599008324</v>
       </c>
-      <c r="M12">
+      <c r="N12" s="1">
         <v>5.474870699300137E-05</v>
       </c>
-      <c r="N12">
+      <c r="O12" s="1">
         <v>0.08923861599008161</v>
       </c>
-      <c r="O12">
+      <c r="P12" s="1">
         <v>1.307630094685265</v>
       </c>
-      <c r="P12">
+      <c r="Q12" s="1">
         <v>0.2158154475874466</v>
       </c>
-      <c r="Q12">
+      <c r="R12" s="1">
         <v>0.1945463722328488</v>
       </c>
-      <c r="R12">
+      <c r="S12" s="1">
         <v>0.3253556227847539</v>
       </c>
-      <c r="S12">
+      <c r="T12" s="1">
         <v>0.2542119999036979</v>
       </c>
-      <c r="T12">
+      <c r="U12" s="1">
         <v>0.2210895087876128</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:21">
       <c r="A13">
+        <v>9720</v>
+      </c>
+      <c r="B13">
         <v>-2.14492949082945</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>0.000679718985948966</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.008660796286496011</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>2.994343626665726</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.007174118780785095</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.003691424892600358</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>19.64649218141604</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.024852687815843</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>17.11992933803555</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>2.965253252975106</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>0.00756288409115601</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.06811800691678958</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>5.485080679104452E-05</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>0.06811800691678893</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>9.315907172679495</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>0.3568045020111711</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>0.02233836201713205</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>0.6344527651974496</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>0.2082698513425592</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>0.5073976123417954</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
-      <c r="A14">
+    <row r="14" spans="1:21" s="1" customFormat="1">
+      <c r="A14" s="1">
+        <v>9186</v>
+      </c>
+      <c r="B14" s="1">
         <v>-3.699781135822144</v>
       </c>
-      <c r="B14">
+      <c r="C14" s="1">
         <v>0.0007902626358170166</v>
       </c>
-      <c r="C14">
+      <c r="D14" s="1">
         <v>0.0098836395373202</v>
       </c>
-      <c r="D14">
+      <c r="E14" s="1">
         <v>0.4585468207690044</v>
       </c>
-      <c r="E14">
+      <c r="F14" s="1">
         <v>0.007175724036267457</v>
       </c>
-      <c r="F14">
+      <c r="G14" s="1">
         <v>0.004989640828957764</v>
       </c>
-      <c r="G14">
+      <c r="H14" s="1">
         <v>2.699293296102625</v>
       </c>
-      <c r="H14">
+      <c r="I14" s="1">
         <v>0.008383963002853724</v>
       </c>
-      <c r="I14">
+      <c r="J14" s="1">
         <v>2.065583347955624</v>
       </c>
-      <c r="J14">
+      <c r="K14" s="1">
         <v>0.4500881629454989</v>
       </c>
-      <c r="K14">
+      <c r="L14" s="1">
         <v>0.007551099651594036</v>
       </c>
-      <c r="L14">
+      <c r="M14" s="1">
         <v>0.07931972921956675</v>
       </c>
-      <c r="M14">
+      <c r="N14" s="1">
         <v>5.476533860063415E-05</v>
       </c>
-      <c r="N14">
+      <c r="O14" s="1">
         <v>0.07931972921956673</v>
       </c>
-      <c r="O14">
+      <c r="P14" s="1">
         <v>1.304508843912329</v>
       </c>
-      <c r="P14">
+      <c r="Q14" s="1">
         <v>0.2363363363833242</v>
       </c>
-      <c r="Q14">
+      <c r="R14" s="1">
         <v>0.1939276295426846</v>
       </c>
-      <c r="R14">
+      <c r="S14" s="1">
         <v>0.4226686840898305</v>
       </c>
-      <c r="S14">
+      <c r="T14" s="1">
         <v>0.2532553014898574</v>
       </c>
-      <c r="T14">
+      <c r="U14" s="1">
         <v>0.3810546999630308</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21">
       <c r="A15">
+        <v>9721</v>
+      </c>
+      <c r="B15">
         <v>-1.642549567724694</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>0.0005192005057607072</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.009562542639302308</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2.334199438921583</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.007172705358310005</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.002934299153179218</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>26.13831359394676</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.02067928444753542</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>20.56717153534174</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>2.457306767520724</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>0.007566691699335247</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.05200547214185662</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>5.487842196774934E-05</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>0.05200547214185666</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>12.44650878844356</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>0.2349775258322351</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>0.0008440191775448218</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>0.2206441099650343</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>0.01050848119283961</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>0.05844979694891361</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
-      <c r="A16">
+    <row r="16" spans="1:21" s="1" customFormat="1">
+      <c r="A16" s="1">
+        <v>9186</v>
+      </c>
+      <c r="B16" s="1">
         <v>-4.958884621684923</v>
       </c>
-      <c r="B16">
+      <c r="C16" s="1">
         <v>0.001016860524648371</v>
       </c>
-      <c r="C16">
+      <c r="D16" s="1">
         <v>0.009903412313649067</v>
       </c>
-      <c r="D16">
+      <c r="E16" s="1">
         <v>0.394481809472249</v>
       </c>
-      <c r="E16">
+      <c r="F16" s="1">
         <v>0.007175176480282673</v>
       </c>
-      <c r="F16">
+      <c r="G16" s="1">
         <v>0.003976427238991387</v>
       </c>
-      <c r="G16">
+      <c r="H16" s="1">
         <v>2.699291895192637</v>
       </c>
-      <c r="H16">
+      <c r="I16" s="1">
         <v>0.006324445588002652</v>
       </c>
-      <c r="I16">
+      <c r="J16" s="1">
         <v>2.051668836958891</v>
       </c>
-      <c r="J16">
+      <c r="K16" s="1">
         <v>0.3977318692284916</v>
       </c>
-      <c r="K16">
+      <c r="L16" s="1">
         <v>0.007541556728975534</v>
       </c>
-      <c r="L16">
+      <c r="M16" s="1">
         <v>0.1021928148428072</v>
       </c>
-      <c r="M16">
+      <c r="N16" s="1">
         <v>5.46961273052526E-05</v>
       </c>
-      <c r="N16">
+      <c r="O16" s="1">
         <v>0.1021928148428077</v>
       </c>
-      <c r="O16">
+      <c r="P16" s="1">
         <v>1.306532670285804</v>
       </c>
-      <c r="P16">
+      <c r="Q16" s="1">
         <v>0.3389653035504574</v>
       </c>
-      <c r="Q16">
+      <c r="R16" s="1">
         <v>0.1948974100333302</v>
       </c>
-      <c r="R16">
+      <c r="S16" s="1">
         <v>0.448321105098077</v>
       </c>
-      <c r="S16">
+      <c r="T16" s="1">
         <v>0.2543404327212342</v>
       </c>
-      <c r="T16">
+      <c r="U16" s="1">
         <v>0.2858146698835508</v>
       </c>
     </row>

--- a/data/Inga_2018-11-09_WM_20181109-114911/Ratios.xlsx
+++ b/data/Inga_2018-11-09_WM_20181109-114911/Ratios.xlsx
@@ -514,16 +514,16 @@
         <v>9186</v>
       </c>
       <c r="B2" s="1">
-        <v>-3.543703889504424</v>
+        <v>-4.346463241969856</v>
       </c>
       <c r="C2" s="1">
-        <v>0.001295645475698015</v>
+        <v>0.001136469920403883</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01000133335800107</v>
+        <v>0.01000230000030109</v>
       </c>
       <c r="E2" s="1">
-        <v>0.4506409409315248</v>
+        <v>0.4320365356713142</v>
       </c>
       <c r="F2" s="1">
         <v>0.00717799145314555</v>
@@ -544,22 +544,22 @@
         <v>0.4406674262685277</v>
       </c>
       <c r="L2" s="1">
-        <v>0.007552282583021711</v>
+        <v>0.007546198356849778</v>
       </c>
       <c r="M2" s="1">
-        <v>0.1300253187977594</v>
+        <v>0.1141431108761355</v>
       </c>
       <c r="N2" s="1">
-        <v>5.477391796564943E-05</v>
+        <v>5.472979131896184E-05</v>
       </c>
       <c r="O2" s="1">
-        <v>0.1300253187977592</v>
+        <v>0.1141431108761355</v>
       </c>
       <c r="P2" s="1">
-        <v>1.305966114169593</v>
+        <v>1.305964121354403</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.3722519165700965</v>
+        <v>0.3722524839430216</v>
       </c>
       <c r="R2" s="1">
         <v>0.1946590676346031</v>
@@ -568,10 +568,10 @@
         <v>0.4000161950052096</v>
       </c>
       <c r="T2" s="1">
-        <v>0.2546811624431466</v>
+        <v>0.2546807723500223</v>
       </c>
       <c r="U2" s="1">
-        <v>0.3650882176111481</v>
+        <v>0.3650885884167779</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -621,10 +621,10 @@
         <v>0.1463255055573166</v>
       </c>
       <c r="P3">
-        <v>15.28067913104173</v>
+        <v>15.28067713828226</v>
       </c>
       <c r="Q3">
-        <v>0.7630365089539382</v>
+        <v>0.7630366084239169</v>
       </c>
       <c r="R3">
         <v>0.0589822979282273</v>
@@ -633,10 +633,10 @@
         <v>2.931364543937377</v>
       </c>
       <c r="T3">
-        <v>0.9018582759042776</v>
+        <v>0.9018581552247483</v>
       </c>
       <c r="U3">
-        <v>2.847271297654479</v>
+        <v>2.847271312111027</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
@@ -650,16 +650,16 @@
         <v>0.001112384267381515</v>
       </c>
       <c r="D4" s="1">
-        <v>0.009859724104468644</v>
+        <v>0.009858725955514484</v>
       </c>
       <c r="E4" s="1">
-        <v>0.4243881439755509</v>
+        <v>0.452704544934202</v>
       </c>
       <c r="F4" s="1">
-        <v>0.007177055373651661</v>
+        <v>0.007177060046642438</v>
       </c>
       <c r="G4" s="1">
-        <v>0.006501476568724097</v>
+        <v>0.006099549357745674</v>
       </c>
       <c r="H4" s="1">
         <v>2.699718702860548</v>
@@ -668,10 +668,10 @@
         <v>0.008423240659798149</v>
       </c>
       <c r="J4" s="1">
-        <v>2.064165395369796</v>
+        <v>2.065385710343613</v>
       </c>
       <c r="K4" s="1">
-        <v>0.4555356390590248</v>
+        <v>0.4821551753572025</v>
       </c>
       <c r="L4" s="1">
         <v>0.007540655251536639</v>
@@ -686,22 +686,22 @@
         <v>0.1118061590181461</v>
       </c>
       <c r="P4" s="1">
-        <v>1.309592230342671</v>
+        <v>1.309590237555901</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.230910383116601</v>
+        <v>0.2309107350701574</v>
       </c>
       <c r="R4" s="1">
-        <v>0.1951022458973197</v>
+        <v>0.1951177236046016</v>
       </c>
       <c r="S4" s="1">
-        <v>0.4439170131939391</v>
+        <v>0.4863252868335161</v>
       </c>
       <c r="T4" s="1">
-        <v>0.2544523546619117</v>
+        <v>0.254451966892874</v>
       </c>
       <c r="U4" s="1">
-        <v>0.2769718350353481</v>
+        <v>0.2769718537359103</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -721,10 +721,10 @@
         <v>2.21990038083948</v>
       </c>
       <c r="F5">
-        <v>0.007173997915120665</v>
+        <v>0.007173967396683234</v>
       </c>
       <c r="G5">
-        <v>0.005788632951176021</v>
+        <v>0.005686529708348604</v>
       </c>
       <c r="H5">
         <v>7.502573418054824</v>
@@ -733,10 +733,10 @@
         <v>0.0258666073832901</v>
       </c>
       <c r="J5">
-        <v>5.73688258602763</v>
+        <v>5.719299224597668</v>
       </c>
       <c r="K5">
-        <v>2.322408706039819</v>
+        <v>2.244714942757736</v>
       </c>
       <c r="L5">
         <v>0.007578669278143239</v>
@@ -751,10 +751,10 @@
         <v>0.1652065459329439</v>
       </c>
       <c r="P5">
-        <v>3.607035859658489</v>
+        <v>3.607033867293345</v>
       </c>
       <c r="Q5">
-        <v>0.4398561515096172</v>
+        <v>0.4398563942857729</v>
       </c>
       <c r="R5">
         <v>0.005860629943994579</v>
@@ -763,10 +763,10 @@
         <v>0.4353674775303392</v>
       </c>
       <c r="T5">
-        <v>0.02107339427257118</v>
+        <v>0.02107338269331508</v>
       </c>
       <c r="U5">
-        <v>0.2154673192723945</v>
+        <v>0.2154674203966001</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
@@ -798,10 +798,10 @@
         <v>0.009400022986501923</v>
       </c>
       <c r="J6" s="1">
-        <v>2.060119946887088</v>
+        <v>2.058691461260213</v>
       </c>
       <c r="K6" s="1">
-        <v>0.4071919102451975</v>
+        <v>0.4290959512891188</v>
       </c>
       <c r="L6" s="1">
         <v>0.007562015437654122</v>
@@ -816,10 +816,10 @@
         <v>0.09846882440351537</v>
       </c>
       <c r="P6" s="1">
-        <v>1.306146495871305</v>
+        <v>1.306144503106202</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.3270274768239409</v>
+        <v>0.3270279760509027</v>
       </c>
       <c r="R6" s="1">
         <v>0.1949372469548754</v>
@@ -828,10 +828,10 @@
         <v>0.4553838593506854</v>
       </c>
       <c r="T6" s="1">
-        <v>0.2542352498259605</v>
+        <v>0.2542348737881068</v>
       </c>
       <c r="U6" s="1">
-        <v>0.2907207498660413</v>
+        <v>0.2907207943990641</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -863,10 +863,10 @@
         <v>0.0332131819373989</v>
       </c>
       <c r="J7">
-        <v>18.74110099785223</v>
+        <v>18.71853147365436</v>
       </c>
       <c r="K7">
-        <v>3.672396563329767</v>
+        <v>3.579091055796329</v>
       </c>
       <c r="L7">
         <v>0.007561725911077375</v>
@@ -881,10 +881,10 @@
         <v>0.07410970946316066</v>
       </c>
       <c r="P7">
-        <v>11.51100365806201</v>
+        <v>11.51100166555282</v>
       </c>
       <c r="Q7">
-        <v>0.37946074242345</v>
+        <v>0.379460808073765</v>
       </c>
       <c r="R7">
         <v>0.09872799592855958</v>
@@ -893,10 +893,10 @@
         <v>1.486163905879544</v>
       </c>
       <c r="T7">
-        <v>1.133871896585667</v>
+        <v>1.133871700599248</v>
       </c>
       <c r="U7">
-        <v>1.401243062331488</v>
+        <v>1.401243056938023</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
@@ -922,10 +922,10 @@
         <v>0.004670007474339591</v>
       </c>
       <c r="H8" s="1">
-        <v>2.699349606342518</v>
+        <v>2.699364521708428</v>
       </c>
       <c r="I8" s="1">
-        <v>0.006828732521500181</v>
+        <v>0.007298460639385412</v>
       </c>
       <c r="J8" s="1">
         <v>2.053786140768191</v>
@@ -946,10 +946,10 @@
         <v>0.08373132603827285</v>
       </c>
       <c r="P8" s="1">
-        <v>1.309110682592674</v>
+        <v>1.309935559217266</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.3117928259639976</v>
+        <v>0.302136297629607</v>
       </c>
       <c r="R8" s="1">
         <v>0.1953125163448551</v>
@@ -958,10 +958,10 @@
         <v>0.4640072391248222</v>
       </c>
       <c r="T8" s="1">
-        <v>0.2555664552922462</v>
+        <v>0.2555660680303823</v>
       </c>
       <c r="U8" s="1">
-        <v>0.25524959425655</v>
+        <v>0.2552495209300517</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -993,10 +993,10 @@
         <v>0.03396529543407661</v>
       </c>
       <c r="J9">
-        <v>26.46578628848677</v>
+        <v>26.44082220731349</v>
       </c>
       <c r="K9">
-        <v>3.215281694173313</v>
+        <v>3.109065176893555</v>
       </c>
       <c r="L9">
         <v>0.007569434626890977</v>
@@ -1011,10 +1011,10 @@
         <v>0.06242206481082245</v>
       </c>
       <c r="P9">
-        <v>15.76782841539394</v>
+        <v>15.78362657429639</v>
       </c>
       <c r="Q9">
-        <v>0.4302640986438764</v>
+        <v>0.4125288166592271</v>
       </c>
       <c r="R9">
         <v>0.01117163554071872</v>
@@ -1023,10 +1023,10 @@
         <v>0.5582931637702198</v>
       </c>
       <c r="T9">
-        <v>0.1766722212465853</v>
+        <v>0.1766721985308917</v>
       </c>
       <c r="U9">
-        <v>0.3515975603853564</v>
+        <v>0.351597563992787</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
@@ -1052,10 +1052,10 @@
         <v>0.005376272354137635</v>
       </c>
       <c r="H10" s="1">
-        <v>2.699247965118998</v>
+        <v>2.699222237276266</v>
       </c>
       <c r="I10" s="1">
-        <v>0.007366958264563671</v>
+        <v>0.006899427687144034</v>
       </c>
       <c r="J10" s="1">
         <v>2.057099993786945</v>
@@ -1076,10 +1076,10 @@
         <v>0.1051840351184713</v>
       </c>
       <c r="P10" s="1">
-        <v>1.305377877935024</v>
+        <v>1.305375885283782</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.287265495619179</v>
+        <v>0.2872659353666364</v>
       </c>
       <c r="R10" s="1">
         <v>0.1955331892553568</v>
@@ -1088,10 +1088,10 @@
         <v>0.4591644413876385</v>
       </c>
       <c r="T10" s="1">
-        <v>0.2551270533060435</v>
+        <v>0.2551266661437217</v>
       </c>
       <c r="U10" s="1">
-        <v>0.2919022298194994</v>
+        <v>0.2919022498101783</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1105,10 +1105,10 @@
         <v>0.0006150742400669406</v>
       </c>
       <c r="D11">
-        <v>0.009610709267804031</v>
+        <v>0.009617090543235918</v>
       </c>
       <c r="E11">
-        <v>2.503900820748269</v>
+        <v>2.503589336580748</v>
       </c>
       <c r="F11">
         <v>0.007173593772190717</v>
@@ -1117,16 +1117,16 @@
         <v>0.003068993150975816</v>
       </c>
       <c r="H11">
-        <v>31.71906999615733</v>
+        <v>31.71856395076951</v>
       </c>
       <c r="I11">
-        <v>0.02674465574585643</v>
+        <v>0.02748518079900007</v>
       </c>
       <c r="J11">
-        <v>24.88698370481256</v>
+        <v>24.85144455077353</v>
       </c>
       <c r="K11">
-        <v>2.583612744665059</v>
+        <v>2.512834449749025</v>
       </c>
       <c r="L11">
         <v>0.00756852798933107</v>
@@ -1141,10 +1141,10 @@
         <v>0.06159367162255863</v>
       </c>
       <c r="P11">
-        <v>15.02000864866997</v>
+        <v>15.02000665612014</v>
       </c>
       <c r="Q11">
-        <v>0.2608301154749262</v>
+        <v>0.2608301500611638</v>
       </c>
       <c r="R11">
         <v>0.0004873868849594435</v>
@@ -1153,10 +1153,10 @@
         <v>0.2702078429118109</v>
       </c>
       <c r="T11">
-        <v>0.007330486930141442</v>
+        <v>0.007330485958231978</v>
       </c>
       <c r="U11">
-        <v>0.06275040895976827</v>
+        <v>0.06275040922461911</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
@@ -1182,10 +1182,10 @@
         <v>0.004395954838094303</v>
       </c>
       <c r="H12" s="1">
-        <v>2.699528980303033</v>
+        <v>2.699528621760853</v>
       </c>
       <c r="I12" s="1">
-        <v>0.00693292828629354</v>
+        <v>0.005804521755796589</v>
       </c>
       <c r="J12" s="1">
         <v>2.048005683746828</v>
@@ -1206,10 +1206,10 @@
         <v>0.08923861599008161</v>
       </c>
       <c r="P12" s="1">
-        <v>1.307630094685265</v>
+        <v>1.3076281020285</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.2158154475874466</v>
+        <v>0.215815776003293</v>
       </c>
       <c r="R12" s="1">
         <v>0.1945463722328488</v>
@@ -1218,10 +1218,10 @@
         <v>0.3253556227847539</v>
       </c>
       <c r="T12" s="1">
-        <v>0.2542119999036979</v>
+        <v>0.2542116114137046</v>
       </c>
       <c r="U12" s="1">
-        <v>0.2210895087876128</v>
+        <v>0.2210895279536588</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1235,22 +1235,22 @@
         <v>0.000679718985948966</v>
       </c>
       <c r="D13">
-        <v>0.008660796286496011</v>
+        <v>0.008631371408935825</v>
       </c>
       <c r="E13">
-        <v>2.994343626665726</v>
+        <v>3.135330266206472</v>
       </c>
       <c r="F13">
-        <v>0.007174118780785095</v>
+        <v>0.007174134149524174</v>
       </c>
       <c r="G13">
-        <v>0.003691424892600358</v>
+        <v>0.003600068728041768</v>
       </c>
       <c r="H13">
-        <v>19.64649218141604</v>
+        <v>19.64684962058278</v>
       </c>
       <c r="I13">
-        <v>0.024852687815843</v>
+        <v>0.02400726085605208</v>
       </c>
       <c r="J13">
         <v>17.11992933803555</v>
@@ -1271,10 +1271,10 @@
         <v>0.06811800691678893</v>
       </c>
       <c r="P13">
-        <v>9.315907172679495</v>
+        <v>9.313938542111591</v>
       </c>
       <c r="Q13">
-        <v>0.3568045020111711</v>
+        <v>0.3585395541305567</v>
       </c>
       <c r="R13">
         <v>0.02233836201713205</v>
@@ -1283,10 +1283,10 @@
         <v>0.6344527651974496</v>
       </c>
       <c r="T13">
-        <v>0.2082698513425592</v>
+        <v>0.2083871059407842</v>
       </c>
       <c r="U13">
-        <v>0.5073976123417954</v>
+        <v>0.3911703803145124</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
@@ -1300,16 +1300,16 @@
         <v>0.0007902626358170166</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0098836395373202</v>
+        <v>0.009885461325426443</v>
       </c>
       <c r="E14" s="1">
-        <v>0.4585468207690044</v>
+        <v>0.4626693404894814</v>
       </c>
       <c r="F14" s="1">
-        <v>0.007175724036267457</v>
+        <v>0.0071757431980022</v>
       </c>
       <c r="G14" s="1">
-        <v>0.004989640828957764</v>
+        <v>0.004814947201412341</v>
       </c>
       <c r="H14" s="1">
         <v>2.699293296102625</v>
@@ -1336,10 +1336,10 @@
         <v>0.07931972921956673</v>
       </c>
       <c r="P14" s="1">
-        <v>1.304508843912329</v>
+        <v>1.304506851212454</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.2363363363833242</v>
+        <v>0.2363366977725388</v>
       </c>
       <c r="R14" s="1">
         <v>0.1939276295426846</v>
@@ -1348,10 +1348,10 @@
         <v>0.4226686840898305</v>
       </c>
       <c r="T14" s="1">
-        <v>0.2532553014898574</v>
+        <v>0.2532549146591672</v>
       </c>
       <c r="U14" s="1">
-        <v>0.3810546999630308</v>
+        <v>0.3810547960272023</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1371,10 +1371,10 @@
         <v>2.334199438921583</v>
       </c>
       <c r="F15">
-        <v>0.007172705358310005</v>
+        <v>0.007172717586218937</v>
       </c>
       <c r="G15">
-        <v>0.002934299153179218</v>
+        <v>0.003021117408196237</v>
       </c>
       <c r="H15">
         <v>26.13831359394676</v>
@@ -1383,10 +1383,10 @@
         <v>0.02067928444753542</v>
       </c>
       <c r="J15">
-        <v>20.56717153534174</v>
+        <v>20.55111579011857</v>
       </c>
       <c r="K15">
-        <v>2.457306767520724</v>
+        <v>2.358604827910589</v>
       </c>
       <c r="L15">
         <v>0.007566691699335247</v>
@@ -1401,10 +1401,10 @@
         <v>0.05200547214185666</v>
       </c>
       <c r="P15">
-        <v>12.44650878844356</v>
+        <v>12.44650679596932</v>
       </c>
       <c r="Q15">
-        <v>0.2349775258322351</v>
+        <v>0.2349775634081312</v>
       </c>
       <c r="R15">
         <v>0.0008440191775448218</v>
@@ -1413,10 +1413,10 @@
         <v>0.2206441099650343</v>
       </c>
       <c r="T15">
-        <v>0.01050848119283961</v>
+        <v>0.01050847952531234</v>
       </c>
       <c r="U15">
-        <v>0.05844979694891361</v>
+        <v>0.05844981121142693</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
@@ -1430,10 +1430,10 @@
         <v>0.001016860524648371</v>
       </c>
       <c r="D16" s="1">
-        <v>0.009903412313649067</v>
+        <v>0.009899606839474754</v>
       </c>
       <c r="E16" s="1">
-        <v>0.394481809472249</v>
+        <v>0.4168767132109167</v>
       </c>
       <c r="F16" s="1">
         <v>0.007175176480282673</v>
@@ -1442,10 +1442,10 @@
         <v>0.003976427238991387</v>
       </c>
       <c r="H16" s="1">
-        <v>2.699291895192637</v>
+        <v>2.699349154270508</v>
       </c>
       <c r="I16" s="1">
-        <v>0.006324445588002652</v>
+        <v>0.006743728088740613</v>
       </c>
       <c r="J16" s="1">
         <v>2.051668836958891</v>
@@ -1466,10 +1466,10 @@
         <v>0.1021928148428077</v>
       </c>
       <c r="P16" s="1">
-        <v>1.306532670285804</v>
+        <v>1.306724378472846</v>
       </c>
       <c r="Q16" s="1">
-        <v>0.3389653035504574</v>
+        <v>0.2950921642076711</v>
       </c>
       <c r="R16" s="1">
         <v>0.1948974100333302</v>
@@ -1478,10 +1478,10 @@
         <v>0.448321105098077</v>
       </c>
       <c r="T16" s="1">
-        <v>0.2543404327212342</v>
+        <v>0.2543400472003792</v>
       </c>
       <c r="U16" s="1">
-        <v>0.2858146698835508</v>
+        <v>0.2858147825262634</v>
       </c>
     </row>
   </sheetData>

--- a/data/Inga_2018-11-09_WM_20181109-114911/Ratios.xlsx
+++ b/data/Inga_2018-11-09_WM_20181109-114911/Ratios.xlsx
@@ -83,13 +83,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -118,9 +124,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,68 +585,68 @@
         <v>0.3650885884167779</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3">
+    <row r="3" spans="1:21" s="2" customFormat="1">
+      <c r="A3" s="2">
         <v>9715</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>-0.4998166906194923</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0.001462523696273757</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.006314133240824234</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>15.38855656855631</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>0.007175141914796956</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>0.00604673193632777</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>32.39369657979356</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>0.1316031341934269</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>34.97014251891885</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>132.7473513582583</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>0.00757535263272339</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>0.1463255055573167</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>5.494123652079249E-05</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <v>0.1463255055573166</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="2">
         <v>15.28067713828226</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="2">
         <v>0.7630366084239169</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="2">
         <v>0.0589822979282273</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="2">
         <v>2.931364543937377</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="2">
         <v>0.9018581552247483</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="2">
         <v>2.847271312111027</v>
       </c>
     </row>
@@ -704,68 +715,68 @@
         <v>0.2769718537359103</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5">
+    <row r="5" spans="1:21" s="2" customFormat="1">
+      <c r="A5" s="2">
         <v>9716</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>-0.0622149226449098</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.001651962676204683</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>0.009882492370345322</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>2.21990038083948</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>0.007173967396683234</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>0.005686529708348604</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>7.502573418054824</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>0.0258666073832901</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>5.719299224597668</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>2.244714942757736</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>0.007578669278143239</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <v>0.1652065459329437</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <v>5.496529092582182E-05</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <v>0.1652065459329439</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="2">
         <v>3.607033867293345</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="2">
         <v>0.4398563942857729</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="2">
         <v>0.005860629943994579</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="2">
         <v>0.4353674775303392</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="2">
         <v>0.02107338269331508</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="2">
         <v>0.2154674203966001</v>
       </c>
     </row>
@@ -834,68 +845,68 @@
         <v>0.2907207943990641</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
-      <c r="A7">
+    <row r="7" spans="1:21" s="2" customFormat="1">
+      <c r="A7" s="2">
         <v>9717</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>-2.29774101750313</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0.0007393942454393191</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>0.009695338289446138</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>3.577267232778834</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>0.007174498837758559</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>0.00392891451405727</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>24.41778435892999</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>0.0332131819373989</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>18.71853147365436</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>3.579091055796329</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>0.007561725911077375</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <v>0.07410970946316117</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="2">
         <v>5.48424069384279E-05</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="2">
         <v>0.07410970946316066</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="2">
         <v>11.51100166555282</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="2">
         <v>0.379460808073765</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="2">
         <v>0.09872799592855958</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="2">
         <v>1.486163905879544</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="2">
         <v>1.133871700599248</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="2">
         <v>1.401243056938023</v>
       </c>
     </row>
@@ -964,68 +975,68 @@
         <v>0.2552495209300517</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
-      <c r="A9">
+    <row r="9" spans="1:21" s="2" customFormat="1">
+      <c r="A9" s="2">
         <v>9718</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>-1.280644752506777</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>0.0006234212432108183</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>0.009501002438922376</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>2.944146282696039</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>0.0071752783125933</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>0.003295121693635208</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>33.45852367426423</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>0.03396529543407661</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>26.44082220731349</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <v>3.109065176893555</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <v>0.007569434626890977</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="2">
         <v>0.06242206481082272</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="2">
         <v>5.489831540887415E-05</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="2">
         <v>0.06242206481082245</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="2">
         <v>15.78362657429639</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="2">
         <v>0.4125288166592271</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="2">
         <v>0.01117163554071872</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="2">
         <v>0.5582931637702198</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="2">
         <v>0.1766721985308917</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="2">
         <v>0.351597563992787</v>
       </c>
     </row>
@@ -1094,68 +1105,68 @@
         <v>0.2919022498101783</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
-      <c r="A11">
+    <row r="11" spans="1:21" s="2" customFormat="1">
+      <c r="A11" s="2">
         <v>9719</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>-1.400267488405271</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>0.0006150742400669406</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>0.009617090543235918</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>2.503589336580748</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>0.007173593772190717</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>0.003068993150975816</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>31.71856395076951</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>0.02748518079900007</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <v>24.85144455077353</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <v>2.512834449749025</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <v>0.00756852798933107</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="2">
         <v>0.06159367162255841</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="2">
         <v>5.489173990129945E-05</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="2">
         <v>0.06159367162255863</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="2">
         <v>15.02000665612014</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="2">
         <v>0.2608301500611638</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="2">
         <v>0.0004873868849594435</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="2">
         <v>0.2702078429118109</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="2">
         <v>0.007330485958231978</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="2">
         <v>0.06275040922461911</v>
       </c>
     </row>
@@ -1224,68 +1235,68 @@
         <v>0.2210895279536588</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
-      <c r="A13">
+    <row r="13" spans="1:21" s="2" customFormat="1">
+      <c r="A13" s="2">
         <v>9720</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>-2.14492949082945</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>0.000679718985948966</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>0.008631371408935825</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>3.135330266206472</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>0.007174134149524174</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>0.003600068728041768</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>19.64684962058278</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>0.02400726085605208</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="2">
         <v>17.11992933803555</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <v>2.965253252975106</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <v>0.00756288409115601</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="2">
         <v>0.06811800691678958</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="2">
         <v>5.485080679104452E-05</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="2">
         <v>0.06811800691678893</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="2">
         <v>9.313938542111591</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="2">
         <v>0.3585395541305567</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="2">
         <v>0.02233836201713205</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="2">
         <v>0.6344527651974496</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="2">
         <v>0.2083871059407842</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="2">
         <v>0.3911703803145124</v>
       </c>
     </row>
@@ -1354,68 +1365,68 @@
         <v>0.3810547960272023</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
-      <c r="A15">
+    <row r="15" spans="1:21" s="2" customFormat="1">
+      <c r="A15" s="2">
         <v>9721</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>-1.642549567724694</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>0.0005192005057607072</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>0.009562542639302308</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>2.334199438921583</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>0.007172717586218937</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>0.003021117408196237</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <v>26.13831359394676</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>0.02067928444753542</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="2">
         <v>20.55111579011857</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="2">
         <v>2.358604827910589</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="2">
         <v>0.007566691699335247</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="2">
         <v>0.05200547214185662</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="2">
         <v>5.487842196774934E-05</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="2">
         <v>0.05200547214185666</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="2">
         <v>12.44650679596932</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="2">
         <v>0.2349775634081312</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="2">
         <v>0.0008440191775448218</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="2">
         <v>0.2206441099650343</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="2">
         <v>0.01050847952531234</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="2">
         <v>0.05844981121142693</v>
       </c>
     </row>
